--- a/results/cifar100/naive_fine-tuning_cifar100.xlsx
+++ b/results/cifar100/naive_fine-tuning_cifar100.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K198"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.497377899895727</v>
+        <v>3.504444548514037</v>
       </c>
       <c r="D3">
-        <v>3.328344033314631</v>
+        <v>3.180328460840078</v>
       </c>
       <c r="E3">
-        <v>7.9</v>
+        <v>9.33</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01647811541557312</v>
+        <v>0.015803790807724</v>
       </c>
       <c r="J3">
-        <v>15.8</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.870995173412087</v>
+        <v>2.879994232042701</v>
       </c>
       <c r="D4">
-        <v>2.910207711733305</v>
+        <v>3.080801523648776</v>
       </c>
       <c r="E4">
-        <v>12.98</v>
+        <v>10.68</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.0494948823928833</v>
+        <v>0.04791540050506592</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.548798964086887</v>
+        <v>2.553278093844388</v>
       </c>
       <c r="D5">
-        <v>2.651533805407011</v>
+        <v>2.663808694252601</v>
       </c>
       <c r="E5">
-        <v>14.97</v>
+        <v>15.45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01416525440216064</v>
+        <v>0.0150836320400238</v>
       </c>
       <c r="J5">
-        <v>25.96</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.246506627682036</v>
+        <v>2.260607202496149</v>
       </c>
       <c r="D6">
-        <v>2.579281238409189</v>
+        <v>2.728769394067617</v>
       </c>
       <c r="E6">
-        <v>15.07</v>
+        <v>14.93</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.05646837024688721</v>
+        <v>0.05581976051330566</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.05459558225311</v>
+        <v>2.054884749176228</v>
       </c>
       <c r="D7">
-        <v>2.49123268861037</v>
+        <v>2.300304174423218</v>
       </c>
       <c r="E7">
-        <v>17.12</v>
+        <v>18.8</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01310926542282105</v>
+        <v>0.01309316129684448</v>
       </c>
       <c r="J7">
-        <v>29.94</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.859987741023038</v>
+        <v>1.860902126911467</v>
       </c>
       <c r="D8">
-        <v>2.389769810896653</v>
+        <v>2.160713076591492</v>
       </c>
       <c r="E8">
-        <v>18.18</v>
+        <v>20.42</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.05500636177062988</v>
+        <v>0.05790319061279297</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.730416735716626</v>
+        <v>1.735143068617424</v>
       </c>
       <c r="D9">
-        <v>2.06195160975823</v>
+        <v>2.065296035546523</v>
       </c>
       <c r="E9">
-        <v>21.14</v>
+        <v>21.55</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01281201763153076</v>
+        <v>0.01340929107666016</v>
       </c>
       <c r="J9">
-        <v>30.14</v>
+        <v>29.86</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.588681841318586</v>
+        <v>1.593192092085307</v>
       </c>
       <c r="D10">
-        <v>2.545451567723201</v>
+        <v>2.455128981516912</v>
       </c>
       <c r="E10">
-        <v>17.41</v>
+        <v>17.56</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.0627998893737793</v>
+        <v>0.06398047809600831</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.474804742146382</v>
+        <v>1.478139935341557</v>
       </c>
       <c r="D11">
-        <v>2.165474781623253</v>
+        <v>1.948538110806392</v>
       </c>
       <c r="E11">
-        <v>21.44</v>
+        <v>23.24</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01216151065826416</v>
+        <v>0.011338902759552</v>
       </c>
       <c r="J11">
-        <v>34.24</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.374902418229432</v>
+        <v>1.379769196552513</v>
       </c>
       <c r="D12">
-        <v>1.911188446558439</v>
+        <v>2.014929312926072</v>
       </c>
       <c r="E12">
-        <v>23.86</v>
+        <v>22.55</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.06227376174926758</v>
+        <v>0.06267505950927735</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.267858527402962</v>
+        <v>1.267437609951053</v>
       </c>
       <c r="D13">
-        <v>2.184583572240976</v>
+        <v>1.887500900488633</v>
       </c>
       <c r="E13">
-        <v>21.14</v>
+        <v>23.72</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01175088701248169</v>
+        <v>0.01071511492729187</v>
       </c>
       <c r="J13">
-        <v>36.36</v>
+        <v>40.84</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.155165143772564</v>
+        <v>1.165578806822279</v>
       </c>
       <c r="D14">
-        <v>2.167086913035466</v>
+        <v>2.126598348984352</v>
       </c>
       <c r="E14">
-        <v>21.93</v>
+        <v>22.61</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.06395832901000977</v>
+        <v>0.06385738697052001</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.092658787174562</v>
+        <v>1.08517951089724</v>
       </c>
       <c r="D15">
-        <v>2.449281307367178</v>
+        <v>2.681212095113901</v>
       </c>
       <c r="E15">
-        <v>20.25</v>
+        <v>19.17</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01029557926654816</v>
+        <v>0.0101832750082016</v>
       </c>
       <c r="J15">
-        <v>42.28</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9967445989625644</v>
+        <v>0.997653548168925</v>
       </c>
       <c r="D16">
-        <v>2.023776274461013</v>
+        <v>2.179340628477243</v>
       </c>
       <c r="E16">
-        <v>23.89</v>
+        <v>22.62</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.06453742141723633</v>
+        <v>0.06420094985961915</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9105288776676211</v>
+        <v>0.9117081239160183</v>
       </c>
       <c r="D17">
-        <v>1.993994070933415</v>
+        <v>2.310903971011822</v>
       </c>
       <c r="E17">
-        <v>24.01</v>
+        <v>21.13</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.01245406770706177</v>
+        <v>0.01218396062850952</v>
       </c>
       <c r="J17">
-        <v>34.82</v>
+        <v>35.12</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8459240572642436</v>
+        <v>0.8549628774676703</v>
       </c>
       <c r="D18">
-        <v>2.249650936860305</v>
+        <v>2.116856345763573</v>
       </c>
       <c r="E18">
-        <v>21.72</v>
+        <v>23.09</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.0648389711380005</v>
+        <v>0.06312884616851806</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7657926008764622</v>
+        <v>0.7702790319392111</v>
       </c>
       <c r="D19">
-        <v>2.126060834297767</v>
+        <v>2.098325325892522</v>
       </c>
       <c r="E19">
-        <v>23.78</v>
+        <v>24.15</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01051008110046387</v>
+        <v>0.009526263427734376</v>
       </c>
       <c r="J19">
-        <v>42.88</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7006926125129768</v>
+        <v>0.6922482006845221</v>
       </c>
       <c r="D20">
-        <v>2.36802889750554</v>
+        <v>2.048255076775184</v>
       </c>
       <c r="E20">
-        <v>21.93</v>
+        <v>24.49</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.06737624340057373</v>
+        <v>0.07050835475921631</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.606490404468722</v>
+        <v>0.6039114618195897</v>
       </c>
       <c r="D21">
-        <v>2.856437279627873</v>
+        <v>2.234619635802049</v>
       </c>
       <c r="E21">
-        <v>21.57</v>
+        <v>22.99</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.009323513364791871</v>
+        <v>0.009878863048553467</v>
       </c>
       <c r="J21">
-        <v>47.72</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.5647491459297923</v>
+        <v>0.5452576000078589</v>
       </c>
       <c r="D22">
-        <v>2.559783917206985</v>
+        <v>2.242662585698641</v>
       </c>
       <c r="E22">
-        <v>22.07</v>
+        <v>24.21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.06904693374633789</v>
+        <v>0.06828367118835449</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.083738734764335</v>
+        <v>0.4928632987811502</v>
       </c>
       <c r="D23">
-        <v>1.67975875047537</v>
+        <v>2.454335432786208</v>
       </c>
       <c r="E23">
-        <v>26.83</v>
+        <v>23.31</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01078812661170959</v>
+        <v>0.009356254887580871</v>
       </c>
       <c r="J23">
-        <v>42.28</v>
+        <v>47.44</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9917502144796658</v>
+        <v>0.9827916426996214</v>
       </c>
       <c r="D24">
-        <v>1.684666789495028</v>
+        <v>1.623120014484112</v>
       </c>
       <c r="E24">
-        <v>26.78</v>
+        <v>27.06</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.06976941146850586</v>
+        <v>0.06998703575134277</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9443035436942514</v>
+        <v>0.8919481155091682</v>
       </c>
       <c r="D25">
-        <v>1.674543334887578</v>
+        <v>1.622066314403827</v>
       </c>
       <c r="E25">
-        <v>26.75</v>
+        <v>27.3</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.01060988314151764</v>
+        <v>0.01054432082176208</v>
       </c>
       <c r="J25">
-        <v>43.86</v>
+        <v>45.22</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,10 +1131,10 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9025514247143163</v>
+        <v>0.8466974913546469</v>
       </c>
       <c r="D26">
-        <v>1.738178940919729</v>
+        <v>1.673551311859718</v>
       </c>
       <c r="E26">
         <v>26.44</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.07239467678070069</v>
+        <v>0.07125689086914062</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.865194929912027</v>
+        <v>0.8052394205490044</v>
       </c>
       <c r="D27">
-        <v>1.72492936024299</v>
+        <v>1.665542905147259</v>
       </c>
       <c r="E27">
-        <v>26.71</v>
+        <v>26.82</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.01237027273178101</v>
+        <v>0.01323071360588074</v>
       </c>
       <c r="J27">
-        <v>40.5</v>
+        <v>38.34</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.82080322662286</v>
+        <v>0.7629070155388487</v>
       </c>
       <c r="D28">
-        <v>1.764698936389043</v>
+        <v>1.690198944165156</v>
       </c>
       <c r="E28">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.07468329048156738</v>
+        <v>0.07451036300659179</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.7824429268330599</v>
+        <v>0.724594424783656</v>
       </c>
       <c r="D29">
-        <v>1.766756617105924</v>
+        <v>1.708551480219914</v>
       </c>
       <c r="E29">
-        <v>26.01</v>
+        <v>26.85</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.009740521335601807</v>
+        <v>0.0106453085899353</v>
       </c>
       <c r="J29">
-        <v>47.78</v>
+        <v>45.24</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.7402371431873963</v>
+        <v>0.6823521594030667</v>
       </c>
       <c r="D30">
-        <v>1.775453264896686</v>
+        <v>1.729233567531292</v>
       </c>
       <c r="E30">
-        <v>25.84</v>
+        <v>26.47</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.07125601482391357</v>
+        <v>0.07671514396667481</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.7034157873254961</v>
+        <v>0.6470420423862153</v>
       </c>
       <c r="D31">
-        <v>1.845572645847614</v>
+        <v>1.825004935264587</v>
       </c>
       <c r="E31">
-        <v>25.96</v>
+        <v>26.2</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.009767960500717163</v>
+        <v>0.01125323238372803</v>
       </c>
       <c r="J31">
-        <v>48.02</v>
+        <v>42.26</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.6637233648679953</v>
+        <v>0.6075311965119522</v>
       </c>
       <c r="D32">
-        <v>1.888134562052213</v>
+        <v>1.828450707288889</v>
       </c>
       <c r="E32">
-        <v>25.77</v>
+        <v>26.23</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.07239634952545167</v>
+        <v>0.07168763809204101</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.6269392049418087</v>
+        <v>0.5755729292873788</v>
       </c>
       <c r="D33">
-        <v>1.869772370045002</v>
+        <v>1.829790472984314</v>
       </c>
       <c r="E33">
-        <v>25.59</v>
+        <v>26.42</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.01133110282421112</v>
+        <v>0.01044137258529663</v>
       </c>
       <c r="J33">
-        <v>43.44</v>
+        <v>46.18</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.5880634877006564</v>
+        <v>0.5361697404785494</v>
       </c>
       <c r="D34">
-        <v>1.887452538196857</v>
+        <v>1.831138060643123</v>
       </c>
       <c r="E34">
-        <v>25.87</v>
+        <v>26.19</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.0754153341293335</v>
+        <v>0.07520348167419434</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.5522364114238097</v>
+        <v>0.501623141818342</v>
       </c>
       <c r="D35">
-        <v>1.864487913938669</v>
+        <v>1.854908539698674</v>
       </c>
       <c r="E35">
-        <v>25.84</v>
+        <v>26.09</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.009999881052970887</v>
+        <v>0.01028349652290344</v>
       </c>
       <c r="J35">
-        <v>47.56</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.8729197135013816</v>
+        <v>0.821575048223006</v>
       </c>
       <c r="D36">
-        <v>1.658531188964844</v>
+        <v>1.622574127637423</v>
       </c>
       <c r="E36">
-        <v>26.86</v>
+        <v>27.29</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.07619458675384522</v>
+        <v>0.07494264850616456</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.8586459413038946</v>
+        <v>0.8067313527638933</v>
       </c>
       <c r="D37">
-        <v>1.669344195952782</v>
+        <v>1.61625676888686</v>
       </c>
       <c r="E37">
-        <v>26.81</v>
+        <v>27</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.01161364045143127</v>
+        <v>0.009864514112472534</v>
       </c>
       <c r="J37">
-        <v>43.86</v>
+        <v>48.98</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.8485055164953249</v>
+        <v>0.7977714359232809</v>
       </c>
       <c r="D38">
-        <v>1.658311486244202</v>
+        <v>1.626056423554054</v>
       </c>
       <c r="E38">
-        <v>26.87</v>
+        <v>27.06</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.07648976192474365</v>
+        <v>0.07537671279907227</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.8397774701624845</v>
+        <v>0.787589507820332</v>
       </c>
       <c r="D39">
-        <v>1.668149471282959</v>
+        <v>1.636355271706214</v>
       </c>
       <c r="E39">
-        <v>26.7</v>
+        <v>27.15</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.01375193920135498</v>
+        <v>0.01109095206260681</v>
       </c>
       <c r="J39">
-        <v>43.14</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.8273601911764229</v>
+        <v>0.7744664623674038</v>
       </c>
       <c r="D40">
-        <v>1.689608243795542</v>
+        <v>1.645330319037804</v>
       </c>
       <c r="E40">
-        <v>26.73</v>
+        <v>27.04</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.08488461647033692</v>
+        <v>0.07657690773010253</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.8194496473379894</v>
+        <v>0.7661567657394747</v>
       </c>
       <c r="D41">
-        <v>1.678389613444988</v>
+        <v>1.637867597433237</v>
       </c>
       <c r="E41">
-        <v>26.76</v>
+        <v>27.36</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.01267176713943481</v>
+        <v>0.01071380643844604</v>
       </c>
       <c r="J41">
-        <v>44.14</v>
+        <v>48.42</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.80624598686674</v>
+        <v>0.753456989748288</v>
       </c>
       <c r="D42">
-        <v>1.687278426610507</v>
+        <v>1.643094246204083</v>
       </c>
       <c r="E42">
-        <v>26.55</v>
+        <v>27.05</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.08361111488342285</v>
+        <v>0.08300959815979003</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.7973150616198514</v>
+        <v>0.7440544134747665</v>
       </c>
       <c r="D43">
-        <v>1.683639966524564</v>
+        <v>1.637834172982436</v>
       </c>
       <c r="E43">
-        <v>26.72</v>
+        <v>27.05</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1639,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.008054451227188111</v>
+        <v>0.01177290461063385</v>
       </c>
       <c r="J43">
-        <v>53.66</v>
+        <v>46.62</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1653,13 +1653,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.7857290411417464</v>
+        <v>0.7321639904933693</v>
       </c>
       <c r="D44">
-        <v>1.701149546183073</v>
+        <v>1.672375761545621</v>
       </c>
       <c r="E44">
-        <v>26.59</v>
+        <v>27.16</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1668,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.06745950355529785</v>
+        <v>0.08213255004882812</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.7771303548222095</v>
+        <v>0.7230430197926749</v>
       </c>
       <c r="D45">
-        <v>1.689677458543044</v>
+        <v>1.661966333022484</v>
       </c>
       <c r="E45">
-        <v>26.35</v>
+        <v>26.96</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1697,10 +1697,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.008109785199165344</v>
+        <v>0.007890466475486755</v>
       </c>
       <c r="J45">
-        <v>53.56</v>
+        <v>54.12</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1711,13 +1711,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.7677026243336433</v>
+        <v>0.7138635969794958</v>
       </c>
       <c r="D46">
-        <v>1.684050688376793</v>
+        <v>1.640139075425955</v>
       </c>
       <c r="E46">
-        <v>26.69</v>
+        <v>26.88</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.06788665714263915</v>
+        <v>0.06908626232147216</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.7573612548608696</v>
+        <v>0.7028329024272683</v>
       </c>
       <c r="D47">
-        <v>1.710068170840924</v>
+        <v>1.662738057283255</v>
       </c>
       <c r="E47">
-        <v>26.51</v>
+        <v>26.99</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1755,10 +1755,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.008090420508384705</v>
+        <v>0.007941480326652527</v>
       </c>
       <c r="J47">
-        <v>53.5</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1769,13 +1769,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.748404438516735</v>
+        <v>0.7894690216115091</v>
       </c>
       <c r="D48">
-        <v>1.706439568446233</v>
+        <v>1.619075435858506</v>
       </c>
       <c r="E48">
-        <v>26.47</v>
+        <v>27.23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -1784,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.06855627231597901</v>
+        <v>0.06888373699188233</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.8315548796569352</v>
+        <v>0.7872271595802982</v>
       </c>
       <c r="D49">
-        <v>1.661884656319252</v>
+        <v>1.622464143312894</v>
       </c>
       <c r="E49">
-        <v>26.88</v>
+        <v>27.2</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.008318279361724853</v>
+        <v>0.008158270263671875</v>
       </c>
       <c r="J49">
         <v>52.88</v>
@@ -1827,13 +1827,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.8303912888585994</v>
+        <v>0.7877751071896173</v>
       </c>
       <c r="D50">
-        <v>1.639643247310932</v>
+        <v>1.608137616744408</v>
       </c>
       <c r="E50">
-        <v>26.82</v>
+        <v>27.33</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1842,7 +1842,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.06956050548553466</v>
+        <v>0.06957662563323974</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.8252932803820719</v>
+        <v>0.7829514409588502</v>
       </c>
       <c r="D51">
-        <v>1.668613828145541</v>
+        <v>1.619703219487117</v>
       </c>
       <c r="E51">
-        <v>26.92</v>
+        <v>27.26</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1871,10 +1871,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.008298107290267944</v>
+        <v>0.008195762372016907</v>
       </c>
       <c r="J51">
-        <v>53.42</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.8222055603972579</v>
+        <v>0.7790910881177514</v>
       </c>
       <c r="D52">
-        <v>1.674578263209416</v>
+        <v>1.629533382562491</v>
       </c>
       <c r="E52">
-        <v>26.94</v>
+        <v>27.13</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -1900,7 +1900,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.06963477001190185</v>
+        <v>0.07062661571502686</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.8189878500668348</v>
+        <v>0.7759408697617792</v>
       </c>
       <c r="D53">
-        <v>1.67548169539525</v>
+        <v>1.621489093853877</v>
       </c>
       <c r="E53">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.008503937864303588</v>
+        <v>0.008245434784889221</v>
       </c>
       <c r="J53">
-        <v>52.6</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1943,13 +1943,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.8191627353693531</v>
+        <v>0.7738424993194311</v>
       </c>
       <c r="D54">
-        <v>1.685129770865807</v>
+        <v>1.63744095655588</v>
       </c>
       <c r="E54">
-        <v>26.78</v>
+        <v>27.18</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -1958,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.07123717575073242</v>
+        <v>0.07064526119232177</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.8169955511008744</v>
+        <v>0.7718997866706511</v>
       </c>
       <c r="D55">
-        <v>1.686097823656522</v>
+        <v>1.626494398483863</v>
       </c>
       <c r="E55">
-        <v>26.88</v>
+        <v>27.08</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1987,10 +1987,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.008533747482299806</v>
+        <v>0.008287846374511718</v>
       </c>
       <c r="J55">
-        <v>52.02</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2001,13 +2001,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.8140741080309437</v>
+        <v>0.7690975518353218</v>
       </c>
       <c r="D56">
-        <v>1.687300737087543</v>
+        <v>1.638252331660344</v>
       </c>
       <c r="E56">
-        <v>26.84</v>
+        <v>27.07</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -2016,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.07147959136962891</v>
+        <v>0.07135935745239258</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.8108058598189227</v>
+        <v>0.7661430329348133</v>
       </c>
       <c r="D57">
-        <v>1.674160618048448</v>
+        <v>1.619394907584557</v>
       </c>
       <c r="E57">
-        <v>26.75</v>
+        <v>27.17</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2045,10 +2045,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.008656604480743409</v>
+        <v>0.008443797898292542</v>
       </c>
       <c r="J57">
-        <v>51.68</v>
+        <v>52.94</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2059,13 +2059,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.8102862196685994</v>
+        <v>0.7661047757199381</v>
       </c>
       <c r="D58">
-        <v>1.686986886537992</v>
+        <v>1.634863624205956</v>
       </c>
       <c r="E58">
-        <v>26.77</v>
+        <v>27.21</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2074,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.07069110908508301</v>
+        <v>0.07159467658996582</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.8071307756204521</v>
+        <v>0.7625577164962228</v>
       </c>
       <c r="D59">
-        <v>1.673619362024161</v>
+        <v>1.633271785882803</v>
       </c>
       <c r="E59">
-        <v>26.72</v>
+        <v>27.12</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.008769156265258789</v>
+        <v>0.008706320095062257</v>
       </c>
       <c r="J59">
-        <v>51.92</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2117,13 +2117,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.8032501324088173</v>
+        <v>0.7586657267756167</v>
       </c>
       <c r="D60">
-        <v>1.673032091214107</v>
+        <v>1.630078600003169</v>
       </c>
       <c r="E60">
-        <v>26.72</v>
+        <v>27.16</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.07190731678009034</v>
+        <v>0.07181869297027588</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.8242654494479694</v>
+        <v>0.780914843082428</v>
       </c>
       <c r="D61">
-        <v>1.65342613366934</v>
+        <v>1.597207692953256</v>
       </c>
       <c r="E61">
-        <v>26.85</v>
+        <v>27.25</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2161,10 +2161,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.009006551384925843</v>
+        <v>0.008770137214660644</v>
       </c>
       <c r="J61">
-        <v>51.54</v>
+        <v>52.46</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2175,13 +2175,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.8227580690805891</v>
+        <v>0.779495398027707</v>
       </c>
       <c r="D62">
-        <v>1.670023863132183</v>
+        <v>1.610173940658569</v>
       </c>
       <c r="E62">
-        <v>26.75</v>
+        <v>27.16</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -2190,7 +2190,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.07236640682220459</v>
+        <v>0.07318255596160889</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.8243199486648087</v>
+        <v>0.7803201353655452</v>
       </c>
       <c r="D63">
-        <v>1.656845468741197</v>
+        <v>1.609983719312228</v>
       </c>
       <c r="E63">
-        <v>26.87</v>
+        <v>27.09</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2219,10 +2219,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.00903970787525177</v>
+        <v>0.008740659999847413</v>
       </c>
       <c r="J63">
-        <v>51.18</v>
+        <v>52.84</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2233,13 +2233,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.8198233637134585</v>
+        <v>0.7773542034942492</v>
       </c>
       <c r="D64">
-        <v>1.67245575097891</v>
+        <v>1.635419827241164</v>
       </c>
       <c r="E64">
-        <v>26.76</v>
+        <v>27.12</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2248,7 +2248,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.07272434349060058</v>
+        <v>0.07327315769195557</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.8215460059917079</v>
+        <v>0.7776312859712449</v>
       </c>
       <c r="D65">
-        <v>1.669735981867864</v>
+        <v>1.63158524953402</v>
       </c>
       <c r="E65">
-        <v>26.97</v>
+        <v>27.17</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2277,10 +2277,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.009238768744468689</v>
+        <v>0.008913132286071778</v>
       </c>
       <c r="J65">
-        <v>51.74</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2291,13 +2291,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.8236925063935001</v>
+        <v>0.780199384794826</v>
       </c>
       <c r="D66">
-        <v>1.684939256081214</v>
+        <v>1.637061605086693</v>
       </c>
       <c r="E66">
-        <v>26.77</v>
+        <v>27.16</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.07431027870178222</v>
+        <v>0.07428623332977295</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.821156615177087</v>
+        <v>0.7776072183541493</v>
       </c>
       <c r="D67">
-        <v>1.678282169195322</v>
+        <v>1.642582930051363</v>
       </c>
       <c r="E67">
-        <v>26.8</v>
+        <v>27.19</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2335,10 +2335,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.009149196028709412</v>
+        <v>0.008972142815589905</v>
       </c>
       <c r="J67">
-        <v>51.68</v>
+        <v>52.18</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2349,13 +2349,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.8222515604137319</v>
+        <v>0.7767941867355752</v>
       </c>
       <c r="D68">
-        <v>1.670240530600914</v>
+        <v>1.607462516197792</v>
       </c>
       <c r="E68">
-        <v>26.69</v>
+        <v>27.18</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -2364,7 +2364,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.07389014873504639</v>
+        <v>0.07432057914733886</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.8189819898225564</v>
+        <v>0.7763794897931867</v>
       </c>
       <c r="D69">
-        <v>1.678286634958707</v>
+        <v>1.618050520236676</v>
       </c>
       <c r="E69">
-        <v>26.72</v>
+        <v>27.33</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.007998824143409728</v>
+        <v>0.007843915772438049</v>
       </c>
       <c r="J69">
-        <v>53.72</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2407,13 +2407,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.81849366215478</v>
+        <v>0.7765750077973425</v>
       </c>
       <c r="D70">
-        <v>1.690289570735051</v>
+        <v>1.639336567658644</v>
       </c>
       <c r="E70">
-        <v>26.72</v>
+        <v>27.16</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -2422,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.068786496925354</v>
+        <v>0.06954211101531982</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2436,13 +2436,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.8232579331482406</v>
+        <v>0.7763156827572173</v>
       </c>
       <c r="D71">
-        <v>1.681569337844849</v>
+        <v>1.634362321633559</v>
       </c>
       <c r="E71">
-        <v>26.86</v>
+        <v>27.15</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2451,10 +2451,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.008020129537582398</v>
+        <v>0.007893335890769959</v>
       </c>
       <c r="J71">
-        <v>53.62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2465,13 +2465,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.8238731068847454</v>
+        <v>0.7796342868720536</v>
       </c>
       <c r="D72">
-        <v>1.676423632181608</v>
+        <v>1.641037665880643</v>
       </c>
       <c r="E72">
-        <v>26.78</v>
+        <v>27.27</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.06905505428314208</v>
+        <v>0.06948451499938965</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.8235164263607127</v>
+        <v>0.7802906933083998</v>
       </c>
       <c r="D73">
-        <v>1.678936371436486</v>
+        <v>1.625921460298392</v>
       </c>
       <c r="E73">
-        <v>26.87</v>
+        <v>27.15</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2509,10 +2509,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.008038828134536742</v>
+        <v>0.007883852100372315</v>
       </c>
       <c r="J73">
-        <v>53.74</v>
+        <v>54.12</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2523,13 +2523,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.8278488975710574</v>
+        <v>0.7838783791634889</v>
       </c>
       <c r="D74">
-        <v>1.660888011638935</v>
+        <v>1.631135307825529</v>
       </c>
       <c r="E74">
-        <v>26.93</v>
+        <v>27.16</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -2538,7 +2538,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.06900854053497314</v>
+        <v>0.06972847156524659</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.8220369103735528</v>
+        <v>0.7796466703963491</v>
       </c>
       <c r="D75">
-        <v>1.662252902984619</v>
+        <v>1.622078528771034</v>
       </c>
       <c r="E75">
-        <v>26.68</v>
+        <v>27.21</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2567,10 +2567,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.008031797480583192</v>
+        <v>0.007904357194900513</v>
       </c>
       <c r="J75">
-        <v>53.4</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2581,13 +2581,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.8225231524062367</v>
+        <v>0.778032561846539</v>
       </c>
       <c r="D76">
-        <v>1.672242467220013</v>
+        <v>1.616879536555364</v>
       </c>
       <c r="E76">
-        <v>26.86</v>
+        <v>27.15</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -2596,7 +2596,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.06902956123352051</v>
+        <v>0.06964030323028564</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.8229176497037431</v>
+        <v>0.7790344721448105</v>
       </c>
       <c r="D77">
-        <v>1.667517946316646</v>
+        <v>1.609077435273391</v>
       </c>
       <c r="E77">
-        <v>26.81</v>
+        <v>27.19</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2625,10 +2625,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.008052676272392274</v>
+        <v>0.007927719783782958</v>
       </c>
       <c r="J77">
-        <v>53.46</v>
+        <v>54.08</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2639,13 +2639,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.8265803002678187</v>
+        <v>0.7820161217081864</v>
       </c>
       <c r="D78">
-        <v>1.672910277660076</v>
+        <v>1.620723348397475</v>
       </c>
       <c r="E78">
-        <v>26.86</v>
+        <v>27.18</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.06919208698272705</v>
+        <v>0.06991727371215821</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2668,13 +2668,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.8216263087449875</v>
+        <v>0.7779779924755603</v>
       </c>
       <c r="D79">
-        <v>1.683464279541603</v>
+        <v>1.634091551487262</v>
       </c>
       <c r="E79">
-        <v>26.78</v>
+        <v>27.18</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2683,10 +2683,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.008085625100135803</v>
+        <v>0.007934185838699341</v>
       </c>
       <c r="J79">
-        <v>53.52</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2697,13 +2697,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.8221982395754451</v>
+        <v>0.7777411916614634</v>
       </c>
       <c r="D80">
-        <v>1.693946838378906</v>
+        <v>1.637931383573092</v>
       </c>
       <c r="E80">
-        <v>26.9</v>
+        <v>27.07</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.06962300071716308</v>
+        <v>0.07037996044158935</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.8241476500983786</v>
+        <v>0.7798197728342715</v>
       </c>
       <c r="D81">
-        <v>1.66772800225478</v>
+        <v>1.62476331454057</v>
       </c>
       <c r="E81">
-        <v>26.79</v>
+        <v>27.18</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2741,10 +2741,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.008094974851608277</v>
+        <v>0.007961223030090331</v>
       </c>
       <c r="J81">
-        <v>53.1</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2755,13 +2755,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.8240417094357246</v>
+        <v>0.7799032420183705</v>
       </c>
       <c r="D82">
-        <v>1.667491692763108</v>
+        <v>1.615604501504164</v>
       </c>
       <c r="E82">
-        <v>26.79</v>
+        <v>27.24</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -2770,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.06965487365722656</v>
+        <v>0.07030132064819336</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2784,13 +2784,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.8238939632356694</v>
+        <v>0.7809636107588236</v>
       </c>
       <c r="D83">
-        <v>1.686710082567655</v>
+        <v>1.63996264567742</v>
       </c>
       <c r="E83">
-        <v>26.87</v>
+        <v>27.13</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2799,10 +2799,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.008104582428932189</v>
+        <v>0.007976969623565673</v>
       </c>
       <c r="J83">
-        <v>53.44</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2813,13 +2813,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.8251988112399008</v>
+        <v>0.7808545727645402</v>
       </c>
       <c r="D84">
-        <v>1.667582282653222</v>
+        <v>1.628959188094506</v>
       </c>
       <c r="E84">
-        <v>26.73</v>
+        <v>27.14</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -2828,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.06959761199951171</v>
+        <v>0.07037258567810059</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.8248089752366058</v>
+        <v>0.7805064130673366</v>
       </c>
       <c r="D85">
-        <v>1.664057639928964</v>
+        <v>1.6269188110645</v>
       </c>
       <c r="E85">
-        <v>26.79</v>
+        <v>27.13</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.008141148519515992</v>
+        <v>0.007990228700637817</v>
       </c>
       <c r="J85">
-        <v>53.18</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2871,13 +2871,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.8238520843792806</v>
+        <v>0.7804936302446686</v>
       </c>
       <c r="D86">
-        <v>1.659625576092647</v>
+        <v>1.613493607594417</v>
       </c>
       <c r="E86">
-        <v>26.71</v>
+        <v>27.09</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -2886,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.06995051898956299</v>
+        <v>0.07053589363098145</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2900,13 +2900,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.8250464111302807</v>
+        <v>0.7801041872100493</v>
       </c>
       <c r="D87">
-        <v>1.676554322242737</v>
+        <v>1.635095275365389</v>
       </c>
       <c r="E87">
-        <v>26.95</v>
+        <v>27.08</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2915,10 +2915,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.008160515451431274</v>
+        <v>0.008028129839897155</v>
       </c>
       <c r="J87">
-        <v>52.7</v>
+        <v>53.92</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2929,13 +2929,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.8218320993195593</v>
+        <v>0.7773064628111578</v>
       </c>
       <c r="D88">
-        <v>1.680127739906311</v>
+        <v>1.625021118384141</v>
       </c>
       <c r="E88">
-        <v>26.8</v>
+        <v>27.25</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -2944,7 +2944,7 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.06990008926391601</v>
+        <v>0.07050385494232178</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.8251129710568791</v>
+        <v>0.7819313459691748</v>
       </c>
       <c r="D89">
-        <v>1.672933890269353</v>
+        <v>1.628688583007226</v>
       </c>
       <c r="E89">
-        <v>26.92</v>
+        <v>27.2</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2973,10 +2973,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.008183680176734924</v>
+        <v>0.008055352640151978</v>
       </c>
       <c r="J89">
-        <v>53.38</v>
+        <v>53.76</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2987,13 +2987,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.8228095432298373</v>
+        <v>0.7790343640124904</v>
       </c>
       <c r="D90">
-        <v>1.656082575137799</v>
+        <v>1.610445416890658</v>
       </c>
       <c r="E90">
-        <v>26.88</v>
+        <v>27.13</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -3002,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.07041196899414062</v>
+        <v>0.07102431106567383</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.8235403647464988</v>
+        <v>0.7812434023460456</v>
       </c>
       <c r="D91">
-        <v>1.688916600667513</v>
+        <v>1.630118269186754</v>
       </c>
       <c r="E91">
-        <v>26.8</v>
+        <v>27.24</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3031,10 +3031,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.008209538960456848</v>
+        <v>0.008063059782981873</v>
       </c>
       <c r="J91">
-        <v>53.02</v>
+        <v>53.98</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3045,13 +3045,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.8223852077416615</v>
+        <v>0.7790441444489808</v>
       </c>
       <c r="D92">
-        <v>1.670197716126075</v>
+        <v>1.619323427860553</v>
       </c>
       <c r="E92">
-        <v>26.73</v>
+        <v>27.15</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -3060,7 +3060,7 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.07024703254699707</v>
+        <v>0.0708760305404663</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.8251920611457487</v>
+        <v>0.7796888815618195</v>
       </c>
       <c r="D93">
-        <v>1.671375916554378</v>
+        <v>1.630909745509808</v>
       </c>
       <c r="E93">
-        <v>26.84</v>
+        <v>27.17</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3089,10 +3089,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.008214342522621154</v>
+        <v>0.007870671486854552</v>
       </c>
       <c r="J93">
-        <v>52.94</v>
+        <v>54.46</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3103,13 +3103,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.8239106393493383</v>
+        <v>0.7815870183759031</v>
       </c>
       <c r="D94">
-        <v>1.668510418671828</v>
+        <v>1.619986130641057</v>
       </c>
       <c r="E94">
-        <v>26.92</v>
+        <v>27.17</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -3118,7 +3118,7 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.0704846321105957</v>
+        <v>0.06966927947998047</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3132,13 +3132,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.8239532804067156</v>
+        <v>0.7790842383308748</v>
       </c>
       <c r="D95">
-        <v>1.654080739388099</v>
+        <v>1.603122050945575</v>
       </c>
       <c r="E95">
-        <v>26.9</v>
+        <v>27.17</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3147,10 +3147,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.008016094684600831</v>
+        <v>0.007872849154472351</v>
       </c>
       <c r="J95">
-        <v>53.76</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3161,13 +3161,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.8251989040754538</v>
+        <v>0.7808219152214253</v>
       </c>
       <c r="D96">
-        <v>1.648676560475276</v>
+        <v>1.606993436813354</v>
       </c>
       <c r="E96">
-        <v>26.76</v>
+        <v>27.17</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -3176,7 +3176,7 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.06908918781280518</v>
+        <v>0.06975053539276123</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.8255810769258347</v>
+        <v>0.7814701647885078</v>
       </c>
       <c r="D97">
-        <v>1.654217857580919</v>
+        <v>1.605104400561406</v>
       </c>
       <c r="E97">
-        <v>26.95</v>
+        <v>27.14</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3205,10 +3205,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.008018572616577149</v>
+        <v>0.007882138586044312</v>
       </c>
       <c r="J97">
-        <v>53.64</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3219,13 +3219,13 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.8258533287892299</v>
+        <v>0.7807732235013911</v>
       </c>
       <c r="D98">
-        <v>1.659053334823021</v>
+        <v>1.611645771906926</v>
       </c>
       <c r="E98">
-        <v>26.79</v>
+        <v>27.18</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -3234,7 +3234,7 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.0690930332183838</v>
+        <v>0.069753737449646</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -3248,13 +3248,13 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.8254931748440836</v>
+        <v>0.7821283598916721</v>
       </c>
       <c r="D99">
-        <v>1.670042844919058</v>
+        <v>1.62926080593696</v>
       </c>
       <c r="E99">
-        <v>26.8</v>
+        <v>27.16</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.008020182633399963</v>
+        <v>0.007871390557289124</v>
       </c>
       <c r="J99">
-        <v>53.84</v>
+        <v>54.52</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3277,13 +3277,13 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.8240017927853407</v>
+        <v>0.7812709085709226</v>
       </c>
       <c r="D100">
-        <v>1.671770691871643</v>
+        <v>1.627267287327693</v>
       </c>
       <c r="E100">
-        <v>26.9</v>
+        <v>27.12</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -3292,13 +3292,28 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.06910913181304931</v>
+        <v>0.06973995208740234</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101">
+        <v>0.7818549892543691</v>
+      </c>
+      <c r="D101">
+        <v>1.635129103293786</v>
+      </c>
+      <c r="E101">
+        <v>27.23</v>
+      </c>
       <c r="G101">
         <v>1</v>
       </c>
@@ -3306,10 +3321,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.008016818737983704</v>
+        <v>0.007878299307823182</v>
       </c>
       <c r="J101">
-        <v>53.88</v>
+        <v>54.26</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3320,7 +3335,7 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.0690216423034668</v>
+        <v>0.06967514743804931</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -3334,10 +3349,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.008030141115188599</v>
+        <v>0.007883725142478943</v>
       </c>
       <c r="J103">
-        <v>53.4</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3348,7 +3363,7 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.06925282840728759</v>
+        <v>0.06985012073516846</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -3362,10 +3377,10 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>0.008035134816169739</v>
+        <v>0.007890704083442689</v>
       </c>
       <c r="J105">
-        <v>53.56</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3376,7 +3391,7 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>0.06913261280059814</v>
+        <v>0.06964110965728759</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -3390,10 +3405,10 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>0.008032333326339722</v>
+        <v>0.00789395945072174</v>
       </c>
       <c r="J107">
-        <v>53.76</v>
+        <v>54.16</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3404,7 +3419,7 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>0.06909237289428712</v>
+        <v>0.06976062107086181</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -3418,10 +3433,10 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>0.008037973165512085</v>
+        <v>0.00789857828617096</v>
       </c>
       <c r="J109">
-        <v>53.68</v>
+        <v>54.14</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3432,7 +3447,7 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>0.06933370552062988</v>
+        <v>0.06985309848785401</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -3446,10 +3461,10 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>0.008050744152069092</v>
+        <v>0.007905058646202088</v>
       </c>
       <c r="J111">
-        <v>53.5</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3460,7 +3475,7 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>0.06959393348693847</v>
+        <v>0.07014501533508301</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -3474,10 +3489,10 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>0.008043792390823364</v>
+        <v>0.007900920128822327</v>
       </c>
       <c r="J113">
-        <v>53.54</v>
+        <v>54.42</v>
       </c>
     </row>
     <row r="114" spans="7:10">
@@ -3488,7 +3503,7 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>0.06953320770263671</v>
+        <v>0.07005531826019287</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -3502,10 +3517,10 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>0.008061594557762146</v>
+        <v>0.007916822719573974</v>
       </c>
       <c r="J115">
-        <v>53.44</v>
+        <v>54.24</v>
       </c>
     </row>
     <row r="116" spans="7:10">
@@ -3516,7 +3531,7 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>0.06967570362091065</v>
+        <v>0.0701894983291626</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -3530,10 +3545,10 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>0.008059690833091736</v>
+        <v>0.007922123742103576</v>
       </c>
       <c r="J117">
-        <v>53.44</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="118" spans="7:10">
@@ -3544,7 +3559,7 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>0.06952380275726318</v>
+        <v>0.07007694969177246</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -3558,10 +3573,10 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>0.008018802094459534</v>
+        <v>0.007875674986839295</v>
       </c>
       <c r="J119">
-        <v>53.7</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="120" spans="7:10">
@@ -3572,7 +3587,7 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>0.06903663825988769</v>
+        <v>0.06968540420532227</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -3586,10 +3601,10 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>0.008015296936035156</v>
+        <v>0.007873200392723084</v>
       </c>
       <c r="J121">
-        <v>53.5</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="122" spans="7:10">
@@ -3600,7 +3615,7 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>0.06913745918273925</v>
+        <v>0.06975665187835693</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -3614,10 +3629,10 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>0.008019053292274475</v>
+        <v>0.007875149083137512</v>
       </c>
       <c r="J123">
-        <v>53.74</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="124" spans="7:10">
@@ -3628,7 +3643,7 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>0.06923224411010742</v>
+        <v>0.06978067226409912</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -3642,10 +3657,10 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>0.008023042726516723</v>
+        <v>0.00788138234615326</v>
       </c>
       <c r="J125">
-        <v>53.52</v>
+        <v>54.24</v>
       </c>
     </row>
     <row r="126" spans="7:10">
@@ -3656,7 +3671,7 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>0.0692865961074829</v>
+        <v>0.06983201503753662</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -3670,10 +3685,10 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>0.008026218056678773</v>
+        <v>0.007876410484313964</v>
       </c>
       <c r="J127">
-        <v>53.94</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="128" spans="7:10">
@@ -3684,7 +3699,7 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>0.06909299602508545</v>
+        <v>0.06968791465759278</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -3698,10 +3713,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>0.008028755712509156</v>
+        <v>0.00787943344116211</v>
       </c>
       <c r="J129">
-        <v>53.54</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -3712,7 +3727,7 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>0.06919475116729737</v>
+        <v>0.06972073040008545</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -3726,10 +3741,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>0.008024681282043457</v>
+        <v>0.007886603808403015</v>
       </c>
       <c r="J131">
-        <v>53.6</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -3740,7 +3755,7 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>0.06926564540863037</v>
+        <v>0.06987079563140869</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -3754,10 +3769,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>0.008042536568641663</v>
+        <v>0.0078980304479599</v>
       </c>
       <c r="J133">
-        <v>53.38</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -3768,7 +3783,7 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>0.0693215036392212</v>
+        <v>0.06985848484039307</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -3782,10 +3797,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>0.008024050068855286</v>
+        <v>0.007888866281509399</v>
       </c>
       <c r="J135">
-        <v>53.44</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -3796,7 +3811,7 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>0.06933682537078857</v>
+        <v>0.06990514240264893</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -3810,10 +3825,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>0.0080293883562088</v>
+        <v>0.007887656092643738</v>
       </c>
       <c r="J137">
-        <v>53.44</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -3824,7 +3839,7 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>0.06928467769622802</v>
+        <v>0.06989211292266846</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -3838,10 +3853,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>0.008016476726531982</v>
+        <v>0.007886450099945068</v>
       </c>
       <c r="J139">
-        <v>53.72</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -3852,7 +3867,7 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>0.06925482788085938</v>
+        <v>0.07006489429473876</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -3866,10 +3881,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>0.008017478585243225</v>
+        <v>0.007878476762771607</v>
       </c>
       <c r="J141">
-        <v>53.56</v>
+        <v>54.54</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -3880,7 +3895,7 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>0.0691979305267334</v>
+        <v>0.06978694667816163</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -3894,10 +3909,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>0.008013487052917481</v>
+        <v>0.007874264144897461</v>
       </c>
       <c r="J143">
-        <v>53.74</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -3908,7 +3923,7 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>0.06912475166320801</v>
+        <v>0.06975091609954834</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -3922,10 +3937,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>0.008018604922294616</v>
+        <v>0.007868334031105042</v>
       </c>
       <c r="J145">
-        <v>53.86</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -3936,7 +3951,7 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>0.06912645912170411</v>
+        <v>0.06971116333007812</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -3950,10 +3965,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>0.008023904752731324</v>
+        <v>0.007884914588928222</v>
       </c>
       <c r="J147">
-        <v>53.36</v>
+        <v>54.42</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -3964,7 +3979,7 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>0.0691825777053833</v>
+        <v>0.06986603546142578</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -3978,10 +3993,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>0.008012739181518555</v>
+        <v>0.007871568942070008</v>
       </c>
       <c r="J149">
-        <v>53.72</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -3992,7 +4007,7 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>0.06899527797698975</v>
+        <v>0.06960577373504638</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -4006,10 +4021,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>0.00802821307182312</v>
+        <v>0.007882641816139221</v>
       </c>
       <c r="J151">
-        <v>53.62</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -4020,7 +4035,7 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>0.06915903301239014</v>
+        <v>0.06968260650634765</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -4034,10 +4049,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>0.008019314503669739</v>
+        <v>0.007879311275482177</v>
       </c>
       <c r="J153">
-        <v>53.72</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -4048,7 +4063,7 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>0.06934631443023681</v>
+        <v>0.06987022590637207</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -4062,10 +4077,10 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>0.008015725541114807</v>
+        <v>0.007873586273193359</v>
       </c>
       <c r="J155">
-        <v>53.56</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="156" spans="7:10">
@@ -4076,7 +4091,7 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>0.06896509284973144</v>
+        <v>0.06961627807617188</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -4090,10 +4105,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>0.008014280986785889</v>
+        <v>0.007871210980415344</v>
       </c>
       <c r="J157">
-        <v>53.8</v>
+        <v>54.14</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -4104,7 +4119,7 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>0.06908230018615723</v>
+        <v>0.06970645484924316</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -4118,10 +4133,10 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>0.008020279145240783</v>
+        <v>0.007874535012245179</v>
       </c>
       <c r="J159">
-        <v>53.58</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="160" spans="7:10">
@@ -4132,7 +4147,7 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>0.06925045337677002</v>
+        <v>0.06978127593994141</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -4146,10 +4161,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>0.008015879917144775</v>
+        <v>0.007878228020668029</v>
       </c>
       <c r="J161">
-        <v>53.58</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -4160,7 +4175,7 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>0.06913577136993408</v>
+        <v>0.06979689865112304</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -4174,10 +4189,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>0.008017908120155334</v>
+        <v>0.00787214686870575</v>
       </c>
       <c r="J163">
-        <v>53.74</v>
+        <v>54.26</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -4188,7 +4203,7 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>0.06920350341796876</v>
+        <v>0.06980507144927979</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -4202,10 +4217,10 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>0.008018364453315736</v>
+        <v>0.007877542042732239</v>
       </c>
       <c r="J165">
-        <v>53.46</v>
+        <v>54.28</v>
       </c>
     </row>
     <row r="166" spans="7:10">
@@ -4216,7 +4231,7 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>0.06918172874450683</v>
+        <v>0.06969265384674073</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -4230,10 +4245,10 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>0.008022493052482605</v>
+        <v>0.007880284214019775</v>
       </c>
       <c r="J167">
-        <v>53.58</v>
+        <v>54.26</v>
       </c>
     </row>
     <row r="168" spans="7:10">
@@ -4244,7 +4259,7 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>0.06917807197570801</v>
+        <v>0.06987817573547363</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -4258,10 +4273,10 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>0.008020095133781434</v>
+        <v>0.007883058071136475</v>
       </c>
       <c r="J169">
-        <v>53.42</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="170" spans="7:10">
@@ -4272,7 +4287,7 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>0.06916227722167968</v>
+        <v>0.06974851875305176</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -4286,10 +4301,10 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>0.008016224241256713</v>
+        <v>0.007870794701576233</v>
       </c>
       <c r="J171">
-        <v>53.9</v>
+        <v>54.16</v>
       </c>
     </row>
     <row r="172" spans="7:10">
@@ -4300,7 +4315,7 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>0.06907102432250976</v>
+        <v>0.06968277282714844</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -4314,10 +4329,10 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>0.008016689372062683</v>
+        <v>0.00787322051525116</v>
       </c>
       <c r="J173">
-        <v>53.6</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="174" spans="7:10">
@@ -4328,7 +4343,7 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>0.06921983623504639</v>
+        <v>0.06979438972473144</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -4342,10 +4357,10 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>0.008014332222938538</v>
+        <v>0.007875836992263794</v>
       </c>
       <c r="J175">
-        <v>53.84</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="176" spans="7:10">
@@ -4356,7 +4371,7 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>0.06907733383178712</v>
+        <v>0.06973187389373779</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -4370,10 +4385,10 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>0.008020104122161866</v>
+        <v>0.007872479963302613</v>
       </c>
       <c r="J177">
-        <v>53.76</v>
+        <v>54.26</v>
       </c>
     </row>
     <row r="178" spans="7:10">
@@ -4384,7 +4399,7 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>0.06902873001098633</v>
+        <v>0.06962928848266602</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -4398,10 +4413,10 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>0.0080184410572052</v>
+        <v>0.007873621034622193</v>
       </c>
       <c r="J179">
-        <v>53.6</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="180" spans="7:10">
@@ -4412,7 +4427,7 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>0.06924984779357911</v>
+        <v>0.06980836715698242</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -4426,10 +4441,10 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>0.008019160532951356</v>
+        <v>0.007874766397476196</v>
       </c>
       <c r="J181">
-        <v>53.46</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="182" spans="7:10">
@@ -4440,7 +4455,7 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>0.06917418956756592</v>
+        <v>0.06977770175933838</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -4454,10 +4469,10 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>0.008022038793563844</v>
+        <v>0.007875280666351318</v>
       </c>
       <c r="J183">
-        <v>53.68</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="184" spans="7:10">
@@ -4468,7 +4483,7 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>0.06919452495574951</v>
+        <v>0.06979228210449219</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -4482,10 +4497,10 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>0.008022950744628906</v>
+        <v>0.007870427846908569</v>
       </c>
       <c r="J185">
-        <v>53.84</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="186" spans="7:10">
@@ -4496,7 +4511,7 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>0.06912720890045165</v>
+        <v>0.0697125373840332</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -4510,10 +4525,10 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>0.008019792532920837</v>
+        <v>0.007877780699729919</v>
       </c>
       <c r="J187">
-        <v>53.8</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="188" spans="7:10">
@@ -4524,7 +4539,7 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>0.06924272727966309</v>
+        <v>0.06992579650878906</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -4538,10 +4553,10 @@
         <v>94</v>
       </c>
       <c r="I189">
-        <v>0.00801260576248169</v>
+        <v>0.007870678544044494</v>
       </c>
       <c r="J189">
-        <v>53.52</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="190" spans="7:10">
@@ -4552,7 +4567,7 @@
         <v>94</v>
       </c>
       <c r="I190">
-        <v>0.06924310894012452</v>
+        <v>0.0698277545928955</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -4566,10 +4581,10 @@
         <v>95</v>
       </c>
       <c r="I191">
-        <v>0.008018824386596679</v>
+        <v>0.007867733097076416</v>
       </c>
       <c r="J191">
-        <v>53.9</v>
+        <v>54.28</v>
       </c>
     </row>
     <row r="192" spans="7:10">
@@ -4580,7 +4595,7 @@
         <v>95</v>
       </c>
       <c r="I192">
-        <v>0.06897394638061523</v>
+        <v>0.06967008152008057</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -4594,10 +4609,10 @@
         <v>96</v>
       </c>
       <c r="I193">
-        <v>0.008016179871559143</v>
+        <v>0.007873833107948303</v>
       </c>
       <c r="J193">
-        <v>53.58</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="194" spans="7:10">
@@ -4608,7 +4623,7 @@
         <v>96</v>
       </c>
       <c r="I194">
-        <v>0.06905698699951172</v>
+        <v>0.06980845890045166</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -4622,10 +4637,10 @@
         <v>97</v>
       </c>
       <c r="I195">
-        <v>0.008013414907455444</v>
+        <v>0.007870195174217224</v>
       </c>
       <c r="J195">
-        <v>53.6</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="196" spans="7:10">
@@ -4636,7 +4651,7 @@
         <v>97</v>
       </c>
       <c r="I196">
-        <v>0.06909980640411377</v>
+        <v>0.06965866279602051</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -4650,10 +4665,10 @@
         <v>98</v>
       </c>
       <c r="I197">
-        <v>0.008016004228591918</v>
+        <v>0.007870993828773499</v>
       </c>
       <c r="J197">
-        <v>53.8</v>
+        <v>54.24</v>
       </c>
     </row>
     <row r="198" spans="7:10">
@@ -4664,9 +4679,37 @@
         <v>98</v>
       </c>
       <c r="I198">
-        <v>0.06908770046234131</v>
+        <v>0.06973522644042969</v>
       </c>
       <c r="J198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="7:10">
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>99</v>
+      </c>
+      <c r="I199">
+        <v>0.007878429698944091</v>
+      </c>
+      <c r="J199">
+        <v>54.46</v>
+      </c>
+    </row>
+    <row r="200" spans="7:10">
+      <c r="G200">
+        <v>2</v>
+      </c>
+      <c r="H200">
+        <v>99</v>
+      </c>
+      <c r="I200">
+        <v>0.06968746166229248</v>
+      </c>
+      <c r="J200">
         <v>0</v>
       </c>
     </row>
@@ -4681,7 +4724,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4740,13 +4783,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.572924438831025</v>
+        <v>4.613563856192394</v>
       </c>
       <c r="D3">
-        <v>2.793407843663142</v>
+        <v>2.614298728796152</v>
       </c>
       <c r="E3">
-        <v>11.99</v>
+        <v>14.33</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4755,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.03852808151245117</v>
+        <v>0.03758913040161133</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -4769,13 +4812,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.320540820602822</v>
+        <v>2.28824612841142</v>
       </c>
       <c r="D4">
-        <v>2.294356401150043</v>
+        <v>2.184537722514226</v>
       </c>
       <c r="E4">
-        <v>16.68</v>
+        <v>18.91</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4784,10 +4827,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.01397150621414185</v>
+        <v>0.01313758420944214</v>
       </c>
       <c r="J4">
-        <v>23.98</v>
+        <v>28.66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4798,13 +4841,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.912858826924214</v>
+        <v>1.884050216295023</v>
       </c>
       <c r="D5">
-        <v>2.031925513194158</v>
+        <v>1.93022831586691</v>
       </c>
       <c r="E5">
-        <v>20.19</v>
+        <v>22.2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4813,7 +4856,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.04813320293426514</v>
+        <v>0.0427363338470459</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4827,13 +4870,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.670635733984213</v>
+        <v>1.639731339648762</v>
       </c>
       <c r="D6">
-        <v>1.986527186173659</v>
+        <v>1.908992510575515</v>
       </c>
       <c r="E6">
-        <v>21.84</v>
+        <v>22.63</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4842,10 +4885,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.01161361041069031</v>
+        <v>0.010920592045784</v>
       </c>
       <c r="J6">
-        <v>33.36</v>
+        <v>37.82</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4856,13 +4899,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.500854358208918</v>
+        <v>1.472800691570856</v>
       </c>
       <c r="D7">
-        <v>1.825400251608629</v>
+        <v>1.841144836865939</v>
       </c>
       <c r="E7">
-        <v>24.04</v>
+        <v>23.59</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4871,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.04640954399108887</v>
+        <v>0.04668592853546143</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4885,13 +4928,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.362915043282298</v>
+        <v>1.339098788995658</v>
       </c>
       <c r="D8">
-        <v>1.962547595684345</v>
+        <v>1.893342219866239</v>
       </c>
       <c r="E8">
-        <v>22.61</v>
+        <v>23.34</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4900,10 +4943,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.01029291877746582</v>
+        <v>0.009636113500595093</v>
       </c>
       <c r="J8">
-        <v>40.38</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4914,13 +4957,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.25551633497255</v>
+        <v>1.212428635200568</v>
       </c>
       <c r="D9">
-        <v>1.942607503670913</v>
+        <v>1.884926502521221</v>
       </c>
       <c r="E9">
-        <v>23.23</v>
+        <v>23.4</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4929,7 +4972,7 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.05073735065460205</v>
+        <v>0.05034893951416015</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4943,13 +4986,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.144738465283824</v>
+        <v>1.115109422565562</v>
       </c>
       <c r="D10">
-        <v>1.737619014886709</v>
+        <v>1.884209788762606</v>
       </c>
       <c r="E10">
-        <v>25.19</v>
+        <v>23.69</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4958,10 +5001,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.009917408847808838</v>
+        <v>0.009469326138496399</v>
       </c>
       <c r="J10">
-        <v>43.68</v>
+        <v>45.26</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4972,13 +5015,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.06207205394728</v>
+        <v>1.017043067818194</v>
       </c>
       <c r="D11">
-        <v>1.891544626309321</v>
+        <v>1.891068119269151</v>
       </c>
       <c r="E11">
-        <v>24.19</v>
+        <v>24.32</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4987,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.05405416240692139</v>
+        <v>0.05111057090759277</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5001,13 +5044,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9598540674268672</v>
+        <v>0.9228770669582671</v>
       </c>
       <c r="D12">
-        <v>1.879650702843299</v>
+        <v>1.660352816948524</v>
       </c>
       <c r="E12">
-        <v>24.96</v>
+        <v>26.75</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5016,10 +5059,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.009094238996505737</v>
+        <v>0.009135461616516113</v>
       </c>
       <c r="J12">
-        <v>48.08</v>
+        <v>47.18</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5030,13 +5073,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8878383203945329</v>
+        <v>0.8479652135773043</v>
       </c>
       <c r="D13">
-        <v>1.679159632095924</v>
+        <v>1.703172784585219</v>
       </c>
       <c r="E13">
-        <v>26.8</v>
+        <v>26.72</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5045,7 +5088,7 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.05318301391601563</v>
+        <v>0.05469993515014648</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -5059,13 +5102,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.792872775972417</v>
+        <v>0.7604370892575357</v>
       </c>
       <c r="D14">
-        <v>1.836378473501939</v>
+        <v>2.071559777626625</v>
       </c>
       <c r="E14">
-        <v>25.49</v>
+        <v>23.53</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5074,10 +5117,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.009781302285194396</v>
+        <v>0.009334470200538635</v>
       </c>
       <c r="J14">
-        <v>45.22</v>
+        <v>46.68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5088,13 +5131,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.729781924095829</v>
+        <v>0.6955496209912595</v>
       </c>
       <c r="D15">
-        <v>1.918293512784518</v>
+        <v>1.950599670410156</v>
       </c>
       <c r="E15">
-        <v>25.33</v>
+        <v>24.99</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -5103,7 +5146,7 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.05814052085876465</v>
+        <v>0.05413272857666016</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -5117,13 +5160,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6715552292566384</v>
+        <v>0.617403821871344</v>
       </c>
       <c r="D16">
-        <v>2.030131541765653</v>
+        <v>2.142044690939096</v>
       </c>
       <c r="E16">
-        <v>24.55</v>
+        <v>23.68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -5132,10 +5175,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.009631978535652161</v>
+        <v>0.009312687301635742</v>
       </c>
       <c r="J16">
-        <v>46.46</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5146,13 +5189,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.5873275122283834</v>
+        <v>0.56103085231992</v>
       </c>
       <c r="D17">
-        <v>2.105243829580454</v>
+        <v>2.218803928448604</v>
       </c>
       <c r="E17">
-        <v>24.91</v>
+        <v>24.18</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -5161,7 +5204,7 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.05591650695800781</v>
+        <v>0.05726665077209472</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -5175,13 +5218,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.5404406812338702</v>
+        <v>0.5033550265088546</v>
       </c>
       <c r="D18">
-        <v>2.049843549728394</v>
+        <v>2.111424271876996</v>
       </c>
       <c r="E18">
-        <v>25.58</v>
+        <v>23.99</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -5190,10 +5233,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.008530260801315307</v>
+        <v>0.009623686051368714</v>
       </c>
       <c r="J18">
-        <v>50.38</v>
+        <v>47.38</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5204,13 +5247,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.4942719142521377</v>
+        <v>0.4287585827101648</v>
       </c>
       <c r="D19">
-        <v>2.033189205022959</v>
+        <v>2.258119894908025</v>
       </c>
       <c r="E19">
-        <v>24.76</v>
+        <v>24.79</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -5219,7 +5262,7 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.05689354782104492</v>
+        <v>0.061893723487854</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -5233,13 +5276,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.4224624544118358</v>
+        <v>0.3895092791160651</v>
       </c>
       <c r="D20">
-        <v>2.096134204130906</v>
+        <v>2.167301177978516</v>
       </c>
       <c r="E20">
-        <v>25.36</v>
+        <v>25.63</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -5248,10 +5291,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.009382845306396484</v>
+        <v>0.009524340391159057</v>
       </c>
       <c r="J20">
-        <v>48.38</v>
+        <v>48.64</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5262,13 +5305,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.3659201478008675</v>
+        <v>0.3412805487096837</v>
       </c>
       <c r="D21">
-        <v>2.193855432363657</v>
+        <v>2.193709483513465</v>
       </c>
       <c r="E21">
-        <v>25.69</v>
+        <v>25.94</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5277,7 +5320,7 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.06053044052124024</v>
+        <v>0.05952612457275391</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5291,13 +5334,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.3382715241307706</v>
+        <v>0.3042705748724727</v>
       </c>
       <c r="D22">
-        <v>2.25781904734098</v>
+        <v>2.089464196792016</v>
       </c>
       <c r="E22">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5306,10 +5349,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.009485031795501709</v>
+        <v>0.00835465943813324</v>
       </c>
       <c r="J22">
-        <v>49.92</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5320,13 +5363,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.3004119017746596</v>
+        <v>0.6660155485161637</v>
       </c>
       <c r="D23">
-        <v>2.328972357970017</v>
+        <v>1.484406462082496</v>
       </c>
       <c r="E23">
-        <v>25.14</v>
+        <v>28.92</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -5335,7 +5378,7 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.05930117130279541</v>
+        <v>0.06309022884368896</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -5349,10 +5392,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.633283180473125</v>
+        <v>0.5929646795302366</v>
       </c>
       <c r="D24">
-        <v>1.473390698432922</v>
+        <v>1.514667758574852</v>
       </c>
       <c r="E24">
         <v>29.02</v>
@@ -5364,10 +5407,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.00834998004436493</v>
+        <v>0.008654313015937805</v>
       </c>
       <c r="J24">
-        <v>53.6</v>
+        <v>53.44</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5378,13 +5421,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.5540045840022838</v>
+        <v>0.545884640079684</v>
       </c>
       <c r="D25">
-        <v>1.502416922495915</v>
+        <v>1.53161372588231</v>
       </c>
       <c r="E25">
-        <v>28.82</v>
+        <v>28.93</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -5393,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.06289582710266113</v>
+        <v>0.05914515209197998</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5407,13 +5450,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.5112056399868653</v>
+        <v>0.5126628287598095</v>
       </c>
       <c r="D26">
-        <v>1.536686557989854</v>
+        <v>1.559554448494544</v>
       </c>
       <c r="E26">
-        <v>28.92</v>
+        <v>28.66</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -5422,10 +5465,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.009310429215431213</v>
+        <v>0.0104992965221405</v>
       </c>
       <c r="J26">
-        <v>50.98</v>
+        <v>47.06</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5436,13 +5479,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.4779930610572342</v>
+        <v>0.4827104698767704</v>
       </c>
       <c r="D27">
-        <v>1.544677193348224</v>
+        <v>1.576002047612117</v>
       </c>
       <c r="E27">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -5451,7 +5494,7 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.0617825403213501</v>
+        <v>0.05949056358337403</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5465,13 +5508,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.4490989022022855</v>
+        <v>0.449896559778568</v>
       </c>
       <c r="D28">
-        <v>1.578009110230666</v>
+        <v>1.609371478740986</v>
       </c>
       <c r="E28">
-        <v>28.37</v>
+        <v>28.49</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -5480,10 +5523,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.009422241187095642</v>
+        <v>0.009581579732894897</v>
       </c>
       <c r="J28">
-        <v>50.66</v>
+        <v>49.98</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5494,13 +5537,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.4170831974628753</v>
+        <v>0.4209922159140089</v>
       </c>
       <c r="D29">
-        <v>1.617512308634244</v>
+        <v>1.635171459271358</v>
       </c>
       <c r="E29">
-        <v>28.05</v>
+        <v>28.49</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -5509,7 +5552,7 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.06657915554046631</v>
+        <v>0.06297388877868652</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -5523,13 +5566,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.3921383519088272</v>
+        <v>0.3965917013387765</v>
       </c>
       <c r="D30">
-        <v>1.642212225840642</v>
+        <v>1.67808695939871</v>
       </c>
       <c r="E30">
-        <v>28.19</v>
+        <v>28.06</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -5538,10 +5581,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.01020698454380035</v>
+        <v>0.01063718173503876</v>
       </c>
       <c r="J30">
-        <v>49.1</v>
+        <v>47.36</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5552,13 +5595,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.3654556989142325</v>
+        <v>0.3665902891517741</v>
       </c>
       <c r="D31">
-        <v>1.685669880646926</v>
+        <v>1.690376611856314</v>
       </c>
       <c r="E31">
-        <v>27.73</v>
+        <v>28.15</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -5567,7 +5610,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.06577544612884521</v>
+        <v>0.06819143867492676</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -5581,13 +5624,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.3403904630547076</v>
+        <v>0.3395496660892942</v>
       </c>
       <c r="D32">
-        <v>1.660856677935674</v>
+        <v>1.727026040737446</v>
       </c>
       <c r="E32">
-        <v>27.94</v>
+        <v>27.84</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -5596,10 +5639,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.01016351797580719</v>
+        <v>0.01076985416412353</v>
       </c>
       <c r="J32">
-        <v>49.82</v>
+        <v>48.36</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5610,13 +5653,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.3160871292373775</v>
+        <v>0.3120345721202614</v>
       </c>
       <c r="D33">
-        <v>1.717588268793546</v>
+        <v>1.748867236650907</v>
       </c>
       <c r="E33">
-        <v>27.7</v>
+        <v>27.98</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -5625,7 +5668,7 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.06729872951507568</v>
+        <v>0.06418543930053711</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -5639,13 +5682,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.290209118375736</v>
+        <v>0.5730928884143323</v>
       </c>
       <c r="D34">
-        <v>1.739725287144001</v>
+        <v>1.463365032122685</v>
       </c>
       <c r="E34">
-        <v>27.95</v>
+        <v>29.45</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -5654,10 +5697,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.01007888531684875</v>
+        <v>0.01053191347122192</v>
       </c>
       <c r="J34">
-        <v>51.16</v>
+        <v>47.98</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5668,13 +5711,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.5346203588806422</v>
+        <v>0.5588132454230722</v>
       </c>
       <c r="D35">
-        <v>1.465119636975802</v>
+        <v>1.475381942895743</v>
       </c>
       <c r="E35">
-        <v>29.2</v>
+        <v>29.43</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -5683,7 +5726,7 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.06579889030456543</v>
+        <v>0.07061205883026123</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5697,13 +5740,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.5222807297136931</v>
+        <v>0.5491394144771373</v>
       </c>
       <c r="D36">
-        <v>1.474687117796678</v>
+        <v>1.475245255690355</v>
       </c>
       <c r="E36">
-        <v>29.1</v>
+        <v>29.18</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5712,10 +5755,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.01033074567317963</v>
+        <v>0.01105844528675079</v>
       </c>
       <c r="J36">
-        <v>49.52</v>
+        <v>49.58</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -5726,13 +5769,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.5114784704900421</v>
+        <v>0.5348842362914465</v>
       </c>
       <c r="D37">
-        <v>1.480162858963013</v>
+        <v>1.473519591184763</v>
       </c>
       <c r="E37">
-        <v>29.03</v>
+        <v>29.2</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5741,7 +5784,7 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.06833911247253419</v>
+        <v>0.06955116195678711</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -5755,13 +5798,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.4992209071606661</v>
+        <v>0.5249166085129291</v>
       </c>
       <c r="D38">
-        <v>1.479374390382033</v>
+        <v>1.494212251443129</v>
       </c>
       <c r="E38">
-        <v>29.11</v>
+        <v>29.17</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -5770,10 +5813,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.01058182260990143</v>
+        <v>0.01067645080089569</v>
       </c>
       <c r="J38">
-        <v>50.72</v>
+        <v>51.26</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5784,13 +5827,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.488208700070339</v>
+        <v>0.5164827802012452</v>
       </c>
       <c r="D39">
-        <v>1.496702157534086</v>
+        <v>1.498799562454224</v>
       </c>
       <c r="E39">
-        <v>29.09</v>
+        <v>29.21</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -5799,7 +5842,7 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.07175970878601075</v>
+        <v>0.06939346637725829</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -5813,13 +5856,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.4805421190979207</v>
+        <v>0.5085947695559105</v>
       </c>
       <c r="D40">
-        <v>1.498452480022724</v>
+        <v>1.496160828150236</v>
       </c>
       <c r="E40">
-        <v>29.03</v>
+        <v>29.15</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -5828,10 +5871,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.01104681816101074</v>
+        <v>0.01072741084098816</v>
       </c>
       <c r="J40">
-        <v>51.38</v>
+        <v>51.88</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5842,13 +5885,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.4725064585166695</v>
+        <v>0.4989282942451207</v>
       </c>
       <c r="D41">
-        <v>1.504709179584797</v>
+        <v>1.491948265295762</v>
       </c>
       <c r="E41">
-        <v>28.87</v>
+        <v>29.19</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -5857,7 +5900,7 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.06844928874969483</v>
+        <v>0.06669103393554687</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -5871,13 +5914,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.4628347195355238</v>
+        <v>0.4876058083192437</v>
       </c>
       <c r="D42">
-        <v>1.498685231575599</v>
+        <v>1.506313424844008</v>
       </c>
       <c r="E42">
-        <v>28.81</v>
+        <v>29.14</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -5886,10 +5929,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.01089291040897369</v>
+        <v>0.01045360355377197</v>
       </c>
       <c r="J42">
-        <v>51.4</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5900,13 +5943,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.4527589660302728</v>
+        <v>0.4803449052624998</v>
       </c>
       <c r="D43">
-        <v>1.509850190236018</v>
+        <v>1.518686331235445</v>
       </c>
       <c r="E43">
-        <v>28.83</v>
+        <v>28.96</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5915,7 +5958,7 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.07061583690643311</v>
+        <v>0.05858088397979736</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -5929,13 +5972,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.4443428708916217</v>
+        <v>0.471678168109033</v>
       </c>
       <c r="D44">
-        <v>1.522738080758315</v>
+        <v>1.530059245916513</v>
       </c>
       <c r="E44">
-        <v>28.9</v>
+        <v>28.99</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -5944,10 +5987,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.0115351970911026</v>
+        <v>0.007374891877174377</v>
       </c>
       <c r="J44">
-        <v>50.28</v>
+        <v>57.84</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -5958,13 +6001,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.4384299308325337</v>
+        <v>0.5557177654937305</v>
       </c>
       <c r="D45">
-        <v>1.526167392730713</v>
+        <v>1.448605711643512</v>
       </c>
       <c r="E45">
-        <v>28.77</v>
+        <v>29.48</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -5973,7 +6016,7 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.05890584774017334</v>
+        <v>0.05945973320007324</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -5987,13 +6030,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.5189739597582184</v>
+        <v>0.5538461767466722</v>
       </c>
       <c r="D46">
-        <v>1.453758955001831</v>
+        <v>1.45885445521428</v>
       </c>
       <c r="E46">
-        <v>29.24</v>
+        <v>29.39</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -6002,7 +6045,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.007326866698265076</v>
+        <v>0.0075359854221344</v>
       </c>
       <c r="J46">
         <v>58.04</v>
@@ -6016,13 +6059,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.5185039900572954</v>
+        <v>0.5503882422911383</v>
       </c>
       <c r="D47">
-        <v>1.46424284348121</v>
+        <v>1.463366517653832</v>
       </c>
       <c r="E47">
-        <v>29.21</v>
+        <v>29.42</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -6031,7 +6074,7 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.06008650627136231</v>
+        <v>0.0600829381942749</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -6045,13 +6088,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.5131245540306631</v>
+        <v>0.5458495885924955</v>
       </c>
       <c r="D48">
-        <v>1.462552923422593</v>
+        <v>1.458558531907889</v>
       </c>
       <c r="E48">
-        <v>29.1</v>
+        <v>29.32</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -6060,10 +6103,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.007466764402389526</v>
+        <v>0.007583029890060424</v>
       </c>
       <c r="J48">
-        <v>57.64</v>
+        <v>57.86</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6074,13 +6117,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.5109189756676159</v>
+        <v>0.5452259251501708</v>
       </c>
       <c r="D49">
-        <v>1.46580708026886</v>
+        <v>1.470978645177988</v>
       </c>
       <c r="E49">
-        <v>29.17</v>
+        <v>29.38</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -6089,7 +6132,7 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.0607707483291626</v>
+        <v>0.0597308650970459</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -6103,13 +6146,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.5086923792826391</v>
+        <v>0.5425147999704412</v>
       </c>
       <c r="D50">
-        <v>1.469039706083444</v>
+        <v>1.464079334185674</v>
       </c>
       <c r="E50">
-        <v>29.22</v>
+        <v>29.34</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -6118,10 +6161,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.007632576298713684</v>
+        <v>0.007670230770111084</v>
       </c>
       <c r="J50">
-        <v>57.84</v>
+        <v>57.32</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6132,13 +6175,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.5063893489078083</v>
+        <v>0.5412898688717226</v>
       </c>
       <c r="D51">
-        <v>1.469016689520616</v>
+        <v>1.472750058540931</v>
       </c>
       <c r="E51">
-        <v>29.22</v>
+        <v>29.39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -6147,7 +6190,7 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.06038162899017334</v>
+        <v>0.06026800479888916</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -6161,13 +6204,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.5030001681462853</v>
+        <v>0.5364308399436748</v>
       </c>
       <c r="D52">
-        <v>1.477713979207552</v>
+        <v>1.469230175018311</v>
       </c>
       <c r="E52">
-        <v>29.17</v>
+        <v>29.35</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -6176,10 +6219,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.007749200534820556</v>
+        <v>0.007858510971069335</v>
       </c>
       <c r="J52">
-        <v>57.4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6190,13 +6233,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.4995539982234482</v>
+        <v>0.5386202079532421</v>
       </c>
       <c r="D53">
-        <v>1.467308007753812</v>
+        <v>1.472672471633324</v>
       </c>
       <c r="E53">
-        <v>29.11</v>
+        <v>29.42</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -6205,7 +6248,7 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.06139341163635254</v>
+        <v>0.06022626533508301</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -6219,13 +6262,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.5024423148252267</v>
+        <v>0.5331540701136125</v>
       </c>
       <c r="D54">
-        <v>1.476652017006507</v>
+        <v>1.46335900746859</v>
       </c>
       <c r="E54">
-        <v>29.19</v>
+        <v>29.35</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -6234,10 +6277,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.007934275579452515</v>
+        <v>0.00792648515701294</v>
       </c>
       <c r="J54">
-        <v>56.74</v>
+        <v>56.98</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6248,13 +6291,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.4966060498119456</v>
+        <v>0.5276434258022139</v>
       </c>
       <c r="D55">
-        <v>1.472796834432162</v>
+        <v>1.474305464671208</v>
       </c>
       <c r="E55">
-        <v>29.04</v>
+        <v>29.32</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -6263,7 +6306,7 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.06120636367797851</v>
+        <v>0.06151126136779785</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -6277,13 +6320,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.4925918507892474</v>
+        <v>0.5514075357829575</v>
       </c>
       <c r="D56">
-        <v>1.479284396538368</v>
+        <v>1.456759984676655</v>
       </c>
       <c r="E56">
-        <v>29.2</v>
+        <v>29.39</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -6292,10 +6335,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.008041955232620239</v>
+        <v>0.008041119003295898</v>
       </c>
       <c r="J56">
-        <v>56.1</v>
+        <v>56.98</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -6306,13 +6349,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.5141341498995249</v>
+        <v>0.5529153819105267</v>
       </c>
       <c r="D57">
-        <v>1.461943745613098</v>
+        <v>1.46234550842872</v>
       </c>
       <c r="E57">
-        <v>29.28</v>
+        <v>29.47</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -6321,7 +6364,7 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.06245367450714111</v>
+        <v>0.06153720779418945</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -6335,13 +6378,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.5165270342763546</v>
+        <v>0.5489138235560561</v>
       </c>
       <c r="D58">
-        <v>1.461506568468534</v>
+        <v>1.462594096477215</v>
       </c>
       <c r="E58">
-        <v>29.21</v>
+        <v>29.4</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -6350,10 +6393,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.008196214723587036</v>
+        <v>0.0081921550989151</v>
       </c>
       <c r="J58">
-        <v>56.38</v>
+        <v>56.12</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -6364,13 +6407,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.5124162419707374</v>
+        <v>0.5513597170336056</v>
       </c>
       <c r="D59">
-        <v>1.465275370157682</v>
+        <v>1.466461759347182</v>
       </c>
       <c r="E59">
-        <v>29.16</v>
+        <v>29.46</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -6379,7 +6422,7 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.0628725679397583</v>
+        <v>0.06168201484680176</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -6393,13 +6436,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.5131533335795445</v>
+        <v>0.5495978150747519</v>
       </c>
       <c r="D60">
-        <v>1.462269893059364</v>
+        <v>1.47483373605288</v>
       </c>
       <c r="E60">
-        <v>29.2</v>
+        <v>29.26</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -6408,10 +6451,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.008341520309448243</v>
+        <v>0.008315234661102296</v>
       </c>
       <c r="J60">
-        <v>55.46</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -6422,13 +6465,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.5129311482990737</v>
+        <v>0.5502746767174881</v>
       </c>
       <c r="D61">
-        <v>1.472164530020494</v>
+        <v>1.463755286656893</v>
       </c>
       <c r="E61">
-        <v>29.12</v>
+        <v>29.39</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6437,7 +6480,7 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.06251095504760742</v>
+        <v>0.06367030143737792</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -6451,13 +6494,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.5128959056022948</v>
+        <v>0.550302430591752</v>
       </c>
       <c r="D62">
-        <v>1.461517288134648</v>
+        <v>1.458620502398564</v>
       </c>
       <c r="E62">
-        <v>29.25</v>
+        <v>29.47</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6466,10 +6509,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.008369732904434204</v>
+        <v>0.008582058072090148</v>
       </c>
       <c r="J62">
-        <v>55.88</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -6480,13 +6523,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.5129125832983877</v>
+        <v>0.5466295282925124</v>
       </c>
       <c r="D63">
-        <v>1.457606123043941</v>
+        <v>1.472202970431401</v>
       </c>
       <c r="E63">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6495,7 +6538,7 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.06344619560241699</v>
+        <v>0.06252960758209229</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -6509,13 +6552,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.5103114476773591</v>
+        <v>0.5491334722105381</v>
       </c>
       <c r="D64">
-        <v>1.465527525314918</v>
+        <v>1.462839695123526</v>
       </c>
       <c r="E64">
-        <v>29.19</v>
+        <v>29.38</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6524,10 +6567,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.008609376001358032</v>
+        <v>0.008611656904220581</v>
       </c>
       <c r="J64">
-        <v>55.4</v>
+        <v>55.96</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -6538,13 +6581,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.5106533713045374</v>
+        <v>0.5484677131197094</v>
       </c>
       <c r="D65">
-        <v>1.46360967709468</v>
+        <v>1.47474335707151</v>
       </c>
       <c r="E65">
-        <v>29.13</v>
+        <v>29.35</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6553,7 +6596,7 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.06411973419189453</v>
+        <v>0.05874578456878662</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -6567,13 +6610,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.51114699165378</v>
+        <v>0.5514175520006535</v>
       </c>
       <c r="D66">
-        <v>1.474536373065068</v>
+        <v>1.458374757033128</v>
       </c>
       <c r="E66">
-        <v>29.13</v>
+        <v>29.41</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6582,10 +6625,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.008716569542884826</v>
+        <v>0.007234536910057068</v>
       </c>
       <c r="J66">
-        <v>55.9</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -6596,13 +6639,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.5152407233166484</v>
+        <v>0.5534153593852457</v>
       </c>
       <c r="D67">
-        <v>1.459022439443148</v>
+        <v>1.45901005084698</v>
       </c>
       <c r="E67">
-        <v>29.12</v>
+        <v>29.42</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6611,7 +6654,7 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.05956212043762207</v>
+        <v>0.058860546875</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -6625,13 +6668,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.516296260652289</v>
+        <v>0.5544666996044395</v>
       </c>
       <c r="D68">
-        <v>1.460721639486459</v>
+        <v>1.463953696764432</v>
       </c>
       <c r="E68">
-        <v>29.13</v>
+        <v>29.4</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6640,10 +6683,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.007270579814910889</v>
+        <v>0.007281989002227783</v>
       </c>
       <c r="J68">
-        <v>58.4</v>
+        <v>58.86</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -6654,13 +6697,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.5169937948210049</v>
+        <v>0.5536110643791942</v>
       </c>
       <c r="D69">
-        <v>1.46559713437007</v>
+        <v>1.457643839029166</v>
       </c>
       <c r="E69">
-        <v>29.22</v>
+        <v>29.45</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6669,7 +6712,7 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.05964634056091309</v>
+        <v>0.0590396032333374</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -6683,13 +6726,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.5163868533826508</v>
+        <v>0.5506748470057429</v>
       </c>
       <c r="D70">
-        <v>1.461468228927025</v>
+        <v>1.454923840669485</v>
       </c>
       <c r="E70">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6698,10 +6741,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.00730215585231781</v>
+        <v>0.007325232601165772</v>
       </c>
       <c r="J70">
-        <v>58.2</v>
+        <v>58.36</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -6712,13 +6755,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.5143294627160098</v>
+        <v>0.5515172645054033</v>
       </c>
       <c r="D71">
-        <v>1.463352405107938</v>
+        <v>1.464111089706421</v>
       </c>
       <c r="E71">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6727,7 +6770,7 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.05996692943572998</v>
+        <v>0.05904108123779297</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -6741,13 +6784,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.5133386433652017</v>
+        <v>0.5518179464656695</v>
       </c>
       <c r="D72">
-        <v>1.471134048241835</v>
+        <v>1.458029004243704</v>
       </c>
       <c r="E72">
-        <v>29.13</v>
+        <v>29.44</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6756,10 +6799,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.007368443441390991</v>
+        <v>0.0073177898645401</v>
       </c>
       <c r="J72">
-        <v>58.06</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -6770,13 +6813,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.5155144378674769</v>
+        <v>0.5506054044297312</v>
       </c>
       <c r="D73">
-        <v>1.462798210290762</v>
+        <v>1.458429593306321</v>
       </c>
       <c r="E73">
-        <v>29.27</v>
+        <v>29.32</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6785,7 +6828,7 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.06004074687957764</v>
+        <v>0.05937643947601318</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -6799,13 +6842,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.5118957011573082</v>
+        <v>0.5516615818559596</v>
       </c>
       <c r="D74">
-        <v>1.463663183725797</v>
+        <v>1.46735770885761</v>
       </c>
       <c r="E74">
-        <v>29.16</v>
+        <v>29.3</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6814,10 +6857,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.007381258487701416</v>
+        <v>0.007366349267959595</v>
       </c>
       <c r="J74">
-        <v>58.22</v>
+        <v>58.34</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -6828,13 +6871,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.5134485548576423</v>
+        <v>0.552897905881426</v>
       </c>
       <c r="D75">
-        <v>1.469092378249535</v>
+        <v>1.461937335821298</v>
       </c>
       <c r="E75">
-        <v>29.33</v>
+        <v>29.47</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6843,7 +6886,7 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.0602610652923584</v>
+        <v>0.0591457971572876</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -6857,13 +6900,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.515409326922577</v>
+        <v>0.5525549378542773</v>
       </c>
       <c r="D76">
-        <v>1.459348201751709</v>
+        <v>1.458352556595436</v>
       </c>
       <c r="E76">
-        <v>29.21</v>
+        <v>29.31</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6872,10 +6915,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.007391274261474609</v>
+        <v>0.007374874234199524</v>
       </c>
       <c r="J76">
-        <v>58.18</v>
+        <v>58.42</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -6886,13 +6929,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.5156473646649217</v>
+        <v>0.5524848620448493</v>
       </c>
       <c r="D77">
-        <v>1.461248471186711</v>
+        <v>1.462854889722971</v>
       </c>
       <c r="E77">
-        <v>29.23</v>
+        <v>29.45</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -6901,7 +6944,7 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.05996251354217529</v>
+        <v>0.05940325756072998</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -6915,13 +6958,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.5158112289103787</v>
+        <v>0.5517879473952065</v>
       </c>
       <c r="D78">
-        <v>1.463130914247953</v>
+        <v>1.457366704940796</v>
       </c>
       <c r="E78">
-        <v>29.13</v>
+        <v>29.45</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -6930,10 +6973,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.007425559234619141</v>
+        <v>0.007400075697898864</v>
       </c>
       <c r="J78">
-        <v>58.06</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -6944,13 +6987,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.5133849490532832</v>
+        <v>0.5525167795409144</v>
       </c>
       <c r="D79">
-        <v>1.457889657754164</v>
+        <v>1.456453048265897</v>
       </c>
       <c r="E79">
-        <v>29.13</v>
+        <v>29.32</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -6959,7 +7002,7 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.06040361576080322</v>
+        <v>0.05971271152496338</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -6973,13 +7016,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.5149796077635436</v>
+        <v>0.5551305687533016</v>
       </c>
       <c r="D80">
-        <v>1.464396293346699</v>
+        <v>1.466716885566711</v>
       </c>
       <c r="E80">
-        <v>29.15</v>
+        <v>29.55</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -6988,10 +7031,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.007487135434150696</v>
+        <v>0.007422796964645386</v>
       </c>
       <c r="J80">
-        <v>57.74</v>
+        <v>58.38</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -7002,13 +7045,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.5185003961082053</v>
+        <v>0.5526920290647355</v>
       </c>
       <c r="D81">
-        <v>1.462323509729825</v>
+        <v>1.457600776965801</v>
       </c>
       <c r="E81">
-        <v>29.32</v>
+        <v>29.44</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7017,7 +7060,7 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.06044255867004394</v>
+        <v>0.05940100708007812</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -7031,13 +7074,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.5170530051784178</v>
+        <v>0.5528881315108949</v>
       </c>
       <c r="D82">
-        <v>1.460062109507047</v>
+        <v>1.460819005966187</v>
       </c>
       <c r="E82">
-        <v>29.08</v>
+        <v>29.38</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7046,10 +7089,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.007480358672142029</v>
+        <v>0.007468045949935913</v>
       </c>
       <c r="J82">
-        <v>57.62</v>
+        <v>58.28</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -7060,13 +7103,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.5156705827839607</v>
+        <v>0.5500545230059497</v>
       </c>
       <c r="D83">
-        <v>1.458173064085153</v>
+        <v>1.46577105155358</v>
       </c>
       <c r="E83">
-        <v>29.09</v>
+        <v>29.43</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7075,7 +7118,7 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.06035931987762451</v>
+        <v>0.05968604354858398</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -7089,13 +7132,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.5130048114641578</v>
+        <v>0.5479512035319235</v>
       </c>
       <c r="D84">
-        <v>1.467350400411166</v>
+        <v>1.468693265548119</v>
       </c>
       <c r="E84">
-        <v>29.15</v>
+        <v>29.33</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7104,10 +7147,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.007532140922546387</v>
+        <v>0.007503563761711121</v>
       </c>
       <c r="J84">
-        <v>57.66</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -7118,13 +7161,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.5125769247523452</v>
+        <v>0.553797452586942</v>
       </c>
       <c r="D85">
-        <v>1.469096733973577</v>
+        <v>1.460602503556472</v>
       </c>
       <c r="E85">
-        <v>29.19</v>
+        <v>29.46</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7133,7 +7176,7 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.06058518581390381</v>
+        <v>0.05994698047637939</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -7147,13 +7190,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.5163654487217422</v>
+        <v>0.5512050110681922</v>
       </c>
       <c r="D86">
-        <v>1.466680132425748</v>
+        <v>1.462915585591243</v>
       </c>
       <c r="E86">
-        <v>29.18</v>
+        <v>29.33</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7162,10 +7205,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.007573577690124512</v>
+        <v>0.007534999251365661</v>
       </c>
       <c r="J86">
-        <v>57.8</v>
+        <v>57.98</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -7176,13 +7219,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.5146026714185697</v>
+        <v>0.5520813122259832</v>
       </c>
       <c r="D87">
-        <v>1.464965343475342</v>
+        <v>1.448762490199162</v>
       </c>
       <c r="E87">
-        <v>29.14</v>
+        <v>29.49</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7191,7 +7234,7 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.0607686279296875</v>
+        <v>0.05867957420349121</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -7205,13 +7248,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.5140633076693104</v>
+        <v>0.5513809972104773</v>
       </c>
       <c r="D88">
-        <v>1.460375969226544</v>
+        <v>1.466620738689716</v>
       </c>
       <c r="E88">
-        <v>29.2</v>
+        <v>29.41</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -7220,10 +7263,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.007579773378372193</v>
+        <v>0.007233912444114685</v>
       </c>
       <c r="J88">
-        <v>57.54</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -7234,13 +7277,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.5135304962111785</v>
+        <v>0.5531170808635981</v>
       </c>
       <c r="D89">
-        <v>1.472186923027039</v>
+        <v>1.46715969305772</v>
       </c>
       <c r="E89">
-        <v>29.16</v>
+        <v>29.36</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -7249,7 +7292,7 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.05969866237640381</v>
+        <v>0.05873201999664306</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -7263,13 +7306,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.515466963295388</v>
+        <v>0.5533233638358327</v>
       </c>
       <c r="D90">
-        <v>1.464340466719407</v>
+        <v>1.464302393106314</v>
       </c>
       <c r="E90">
-        <v>29.2</v>
+        <v>29.48</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -7278,10 +7321,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.007264197373390198</v>
+        <v>0.00724826762676239</v>
       </c>
       <c r="J90">
-        <v>58.48</v>
+        <v>58.78</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -7292,10 +7335,10 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.5154188568085696</v>
+        <v>0.5508638071802865</v>
       </c>
       <c r="D91">
-        <v>1.467406988143921</v>
+        <v>1.461940948779766</v>
       </c>
       <c r="E91">
         <v>29.38</v>
@@ -7307,7 +7350,7 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.05959504432678223</v>
+        <v>0.05893392639160156</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -7321,13 +7364,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.5156752488254446</v>
+        <v>0.5536191088963399</v>
       </c>
       <c r="D92">
-        <v>1.464279486582829</v>
+        <v>1.456978256885822</v>
       </c>
       <c r="E92">
-        <v>29.3</v>
+        <v>29.35</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -7336,10 +7379,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.007279645848274231</v>
+        <v>0.007251613187789917</v>
       </c>
       <c r="J92">
-        <v>58.42</v>
+        <v>58.84</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -7350,13 +7393,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.5162777942893779</v>
+        <v>0.5507747736652341</v>
       </c>
       <c r="D93">
-        <v>1.464529376763564</v>
+        <v>1.463447387401874</v>
       </c>
       <c r="E93">
-        <v>29.25</v>
+        <v>29.34</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -7365,7 +7408,7 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.05979960803985596</v>
+        <v>0.05875798416137695</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -7379,13 +7422,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.5139582291641066</v>
+        <v>0.5525303063666926</v>
       </c>
       <c r="D94">
-        <v>1.465523710617652</v>
+        <v>1.45455381503472</v>
       </c>
       <c r="E94">
-        <v>29.15</v>
+        <v>29.37</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -7394,10 +7437,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.007290743947029114</v>
+        <v>0.007248008346557617</v>
       </c>
       <c r="J94">
-        <v>58.2</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -7408,13 +7451,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.5154985284383318</v>
+        <v>0.5529093460171624</v>
       </c>
       <c r="D95">
-        <v>1.456662104679988</v>
+        <v>1.454929755284236</v>
       </c>
       <c r="E95">
-        <v>29.26</v>
+        <v>29.49</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -7423,28 +7466,13 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.05960118675231934</v>
+        <v>0.05895710144042969</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96">
-        <v>2</v>
-      </c>
-      <c r="B96">
-        <v>94</v>
-      </c>
-      <c r="C96">
-        <v>0.5155710723020334</v>
-      </c>
-      <c r="D96">
-        <v>1.460552894152128</v>
-      </c>
-      <c r="E96">
-        <v>29.16</v>
-      </c>
       <c r="G96">
         <v>2</v>
       </c>
@@ -7452,10 +7480,10 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.007278063511848449</v>
+        <v>0.007270767855644227</v>
       </c>
       <c r="J96">
-        <v>58.34</v>
+        <v>58.76</v>
       </c>
     </row>
     <row r="97" spans="7:10">
@@ -7466,7 +7494,7 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.05979734382629395</v>
+        <v>0.05898766288757324</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -7480,10 +7508,10 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.007296235394477844</v>
+        <v>0.007262804722785949</v>
       </c>
       <c r="J98">
-        <v>58.44</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="99" spans="7:10">
@@ -7494,7 +7522,7 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.0599817232131958</v>
+        <v>0.05892957248687744</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -7508,10 +7536,10 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.007305244112014771</v>
+        <v>0.007271207761764526</v>
       </c>
       <c r="J100">
-        <v>58.44</v>
+        <v>58.78</v>
       </c>
     </row>
     <row r="101" spans="7:10">
@@ -7522,7 +7550,7 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.05983330211639405</v>
+        <v>0.05925216693878173</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -7536,10 +7564,10 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.007306586718559265</v>
+        <v>0.007286081957817078</v>
       </c>
       <c r="J102">
-        <v>58.34</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="103" spans="7:10">
@@ -7550,7 +7578,7 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.05996915225982666</v>
+        <v>0.05898588809967041</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -7564,10 +7592,10 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.007321285247802734</v>
+        <v>0.007286300444602966</v>
       </c>
       <c r="J104">
-        <v>58.22</v>
+        <v>58.84</v>
       </c>
     </row>
     <row r="105" spans="7:10">
@@ -7578,7 +7606,7 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>0.05999432773590088</v>
+        <v>0.05897968673706055</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -7592,10 +7620,10 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>0.007330028009414673</v>
+        <v>0.007278752684593201</v>
       </c>
       <c r="J106">
-        <v>58.38</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="107" spans="7:10">
@@ -7606,7 +7634,7 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>0.05993864135742188</v>
+        <v>0.05912890396118164</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -7620,10 +7648,10 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>0.007325694322586059</v>
+        <v>0.00729683632850647</v>
       </c>
       <c r="J108">
-        <v>58.08</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="109" spans="7:10">
@@ -7634,7 +7662,7 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>0.06008599319458008</v>
+        <v>0.05887824668884278</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -7648,10 +7676,10 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>0.007352703404426575</v>
+        <v>0.00723124132156372</v>
       </c>
       <c r="J110">
-        <v>58.4</v>
+        <v>58.78</v>
       </c>
     </row>
     <row r="111" spans="7:10">
@@ -7662,7 +7690,7 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>0.05970170516967773</v>
+        <v>0.0586596866607666</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -7676,10 +7704,10 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>0.007270352554321289</v>
+        <v>0.007229899907112121</v>
       </c>
       <c r="J112">
-        <v>58.56</v>
+        <v>58.94</v>
       </c>
     </row>
     <row r="113" spans="7:10">
@@ -7690,7 +7718,7 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>0.05955117130279541</v>
+        <v>0.05886903018951416</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -7704,10 +7732,10 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>0.007265719652175903</v>
+        <v>0.007237640428543091</v>
       </c>
       <c r="J114">
-        <v>58.42</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="115" spans="7:10">
@@ -7718,7 +7746,7 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>0.05980623779296875</v>
+        <v>0.05890771942138672</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -7732,10 +7760,10 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>0.007272944664955139</v>
+        <v>0.007245784711837768</v>
       </c>
       <c r="J116">
-        <v>58.32</v>
+        <v>58.92</v>
       </c>
     </row>
     <row r="117" spans="7:10">
@@ -7746,7 +7774,7 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>0.0595557035446167</v>
+        <v>0.05928375816345215</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -7760,10 +7788,10 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>0.007267903089523315</v>
+        <v>0.007256805276870728</v>
       </c>
       <c r="J118">
-        <v>58.4</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="119" spans="7:10">
@@ -7774,7 +7802,7 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>0.0600037015914917</v>
+        <v>0.05870326061248779</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -7788,10 +7816,10 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>0.007272875618934632</v>
+        <v>0.007249220371246338</v>
       </c>
       <c r="J120">
-        <v>58.24</v>
+        <v>58.78</v>
       </c>
     </row>
     <row r="121" spans="7:10">
@@ -7802,7 +7830,7 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>0.05960079669952392</v>
+        <v>0.05901430206298828</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -7816,10 +7844,10 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>0.007278552961349488</v>
+        <v>0.007243372416496277</v>
       </c>
       <c r="J122">
-        <v>58.5</v>
+        <v>58.94</v>
       </c>
     </row>
     <row r="123" spans="7:10">
@@ -7830,7 +7858,7 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>0.05995080375671387</v>
+        <v>0.05900220260620117</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -7844,10 +7872,10 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>0.007285612511634827</v>
+        <v>0.00725140335559845</v>
       </c>
       <c r="J124">
-        <v>58.4</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="125" spans="7:10">
@@ -7858,7 +7886,7 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>0.05979003448486328</v>
+        <v>0.05905965690612793</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -7872,10 +7900,10 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>0.007285831952095032</v>
+        <v>0.007251122212409973</v>
       </c>
       <c r="J126">
-        <v>58.38</v>
+        <v>58.76</v>
       </c>
     </row>
     <row r="127" spans="7:10">
@@ -7886,7 +7914,7 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>0.05976169261932373</v>
+        <v>0.05900237865447998</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -7900,10 +7928,10 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>0.007279067778587341</v>
+        <v>0.007251914477348327</v>
       </c>
       <c r="J128">
-        <v>58.26</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="129" spans="7:10">
@@ -7914,7 +7942,7 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>0.05989907379150391</v>
+        <v>0.05888327884674072</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -7928,10 +7956,10 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>0.007292758703231811</v>
+        <v>0.007236980748176575</v>
       </c>
       <c r="J130">
-        <v>58.26</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="131" spans="7:10">
@@ -7942,7 +7970,7 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>0.05964394207000732</v>
+        <v>0.05892521438598633</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -7956,10 +7984,10 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>0.007263473176956177</v>
+        <v>0.007256449627876282</v>
       </c>
       <c r="J132">
-        <v>58.24</v>
+        <v>58.84</v>
       </c>
     </row>
     <row r="133" spans="7:10">
@@ -7970,7 +7998,7 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>0.0598122236251831</v>
+        <v>0.05870071659088135</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7984,10 +8012,10 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>0.007285140895843506</v>
+        <v>0.007243698978424072</v>
       </c>
       <c r="J134">
-        <v>58.26</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="135" spans="7:10">
@@ -7998,7 +8026,7 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>0.05950676975250244</v>
+        <v>0.05889881153106689</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -8012,10 +8040,10 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>0.007270836782455444</v>
+        <v>0.007252045607566833</v>
       </c>
       <c r="J136">
-        <v>58.44</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="137" spans="7:10">
@@ -8026,7 +8054,7 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>0.05974918403625488</v>
+        <v>0.0588187406539917</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -8040,10 +8068,10 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>0.007277509570121765</v>
+        <v>0.007238134956359863</v>
       </c>
       <c r="J138">
-        <v>58.2</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="139" spans="7:10">
@@ -8054,7 +8082,7 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>0.05970149917602539</v>
+        <v>0.05907123355865478</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -8068,10 +8096,10 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>0.007265308117866516</v>
+        <v>0.007246067523956299</v>
       </c>
       <c r="J140">
-        <v>58.4</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="141" spans="7:10">
@@ -8082,7 +8110,7 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>0.05978815803527832</v>
+        <v>0.05862692089080811</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -8096,10 +8124,10 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>0.007273644733428955</v>
+        <v>0.007231761169433594</v>
       </c>
       <c r="J142">
-        <v>58.26</v>
+        <v>58.88</v>
       </c>
     </row>
     <row r="143" spans="7:10">
@@ -8110,7 +8138,7 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>0.05949780139923096</v>
+        <v>0.05891512908935547</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -8124,10 +8152,10 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>0.007250905179977417</v>
+        <v>0.007253281021118164</v>
       </c>
       <c r="J144">
-        <v>58.54</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="145" spans="7:10">
@@ -8138,7 +8166,7 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>0.05987433071136475</v>
+        <v>0.05886332588195801</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -8152,10 +8180,10 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>0.007286642169952393</v>
+        <v>0.007236715984344482</v>
       </c>
       <c r="J146">
-        <v>58.32</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="147" spans="7:10">
@@ -8166,7 +8194,7 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>0.05975323314666748</v>
+        <v>0.05895236263275146</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -8180,10 +8208,10 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>0.007277739453315735</v>
+        <v>0.007256915664672852</v>
       </c>
       <c r="J148">
-        <v>58.66</v>
+        <v>58.94</v>
       </c>
     </row>
     <row r="149" spans="7:10">
@@ -8194,7 +8222,7 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>0.05961832332611084</v>
+        <v>0.05884276237487793</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -8208,10 +8236,10 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>0.007277652478218079</v>
+        <v>0.007247281885147095</v>
       </c>
       <c r="J150">
-        <v>58.42</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="151" spans="7:10">
@@ -8222,7 +8250,7 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>0.05980178737640381</v>
+        <v>0.05891461582183838</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -8236,10 +8264,10 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>0.007284559607505799</v>
+        <v>0.00723785548210144</v>
       </c>
       <c r="J152">
-        <v>58.46</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="153" spans="7:10">
@@ -8250,7 +8278,7 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>0.05975056648254395</v>
+        <v>0.05880303726196289</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -8264,10 +8292,10 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>0.007269027781486511</v>
+        <v>0.007244486927986145</v>
       </c>
       <c r="J154">
-        <v>58.26</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="155" spans="7:10">
@@ -8278,7 +8306,7 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>0.05969064617156982</v>
+        <v>0.0587207935333252</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -8292,10 +8320,10 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>0.007274493598937989</v>
+        <v>0.007233395957946778</v>
       </c>
       <c r="J156">
-        <v>58.26</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="157" spans="7:10">
@@ -8306,7 +8334,7 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>0.0595741024017334</v>
+        <v>0.05872921905517578</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -8320,10 +8348,10 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>0.007257136440277099</v>
+        <v>0.007227371096611023</v>
       </c>
       <c r="J158">
-        <v>58.3</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="159" spans="7:10">
@@ -8334,7 +8362,7 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>0.05947326927185059</v>
+        <v>0.05894217739105224</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -8348,10 +8376,10 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>0.007255553865432739</v>
+        <v>0.007239699220657349</v>
       </c>
       <c r="J160">
-        <v>58.64</v>
+        <v>58.88</v>
       </c>
     </row>
     <row r="161" spans="7:10">
@@ -8362,7 +8390,7 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>0.05973453025817871</v>
+        <v>0.0589947790145874</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -8376,10 +8404,10 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>0.007267687940597534</v>
+        <v>0.007244367456436157</v>
       </c>
       <c r="J162">
-        <v>58.16</v>
+        <v>58.76</v>
       </c>
     </row>
     <row r="163" spans="7:10">
@@ -8390,7 +8418,7 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>0.05989798927307129</v>
+        <v>0.05891981353759766</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -8404,10 +8432,10 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>0.007271175217628479</v>
+        <v>0.007246019816398621</v>
       </c>
       <c r="J164">
-        <v>58.18</v>
+        <v>58.86</v>
       </c>
     </row>
     <row r="165" spans="7:10">
@@ -8418,7 +8446,7 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>0.05965285015106201</v>
+        <v>0.05874579105377197</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -8432,10 +8460,10 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>0.007270986080169677</v>
+        <v>0.007230081272125244</v>
       </c>
       <c r="J166">
-        <v>58.3</v>
+        <v>58.66</v>
       </c>
     </row>
     <row r="167" spans="7:10">
@@ -8446,7 +8474,7 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>0.05974442234039307</v>
+        <v>0.05887390251159668</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -8460,10 +8488,10 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>0.007276465821266174</v>
+        <v>0.007235096478462219</v>
       </c>
       <c r="J168">
-        <v>58.38</v>
+        <v>58.92</v>
       </c>
     </row>
     <row r="169" spans="7:10">
@@ -8474,7 +8502,7 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>0.05987442760467529</v>
+        <v>0.05892295932769775</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -8488,10 +8516,10 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>0.007271021747589111</v>
+        <v>0.007254704737663269</v>
       </c>
       <c r="J170">
-        <v>58.36</v>
+        <v>58.66</v>
       </c>
     </row>
     <row r="171" spans="7:10">
@@ -8502,7 +8530,7 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>0.05979931316375733</v>
+        <v>0.05858458003997803</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -8516,10 +8544,10 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>0.007285071396827698</v>
+        <v>0.007232965707778931</v>
       </c>
       <c r="J172">
-        <v>58.28</v>
+        <v>58.98</v>
       </c>
     </row>
     <row r="173" spans="7:10">
@@ -8530,7 +8558,7 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>0.05950566520690918</v>
+        <v>0.0588387020111084</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -8544,10 +8572,10 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>0.007257290244102478</v>
+        <v>0.007248159718513489</v>
       </c>
       <c r="J174">
-        <v>58.4</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="175" spans="7:10">
@@ -8558,7 +8586,7 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>0.05967620658874512</v>
+        <v>0.0587848726272583</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -8572,10 +8600,10 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>0.007277043008804321</v>
+        <v>0.007243548727035523</v>
       </c>
       <c r="J176">
-        <v>58.32</v>
+        <v>58.72</v>
       </c>
     </row>
     <row r="177" spans="7:10">
@@ -8586,7 +8614,7 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>0.05965514698028564</v>
+        <v>0.05883178539276123</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -8600,10 +8628,10 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>0.007263286685943604</v>
+        <v>0.007238021945953369</v>
       </c>
       <c r="J178">
-        <v>58.4</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="179" spans="7:10">
@@ -8614,7 +8642,7 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>0.05956849155426026</v>
+        <v>0.05873720378875733</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -8628,7 +8656,7 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>0.007262475299835205</v>
+        <v>0.007241771531105041</v>
       </c>
       <c r="J180">
         <v>58.76</v>
@@ -8642,7 +8670,7 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>0.05960649299621582</v>
+        <v>0.05878623390197754</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -8656,10 +8684,10 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>0.00727115843296051</v>
+        <v>0.007230046248435974</v>
       </c>
       <c r="J182">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="183" spans="7:10">
@@ -8670,7 +8698,7 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>0.05968685493469238</v>
+        <v>0.05896167430877686</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -8684,10 +8712,10 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>0.00726449716091156</v>
+        <v>0.007253215932846069</v>
       </c>
       <c r="J184">
-        <v>58.5</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="185" spans="7:10">
@@ -8698,7 +8726,7 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>0.05964922466278076</v>
+        <v>0.05877736225128174</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -8712,10 +8740,10 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>0.007277518129348755</v>
+        <v>0.007233757877349854</v>
       </c>
       <c r="J186">
-        <v>58.3</v>
+        <v>58.74</v>
       </c>
     </row>
     <row r="187" spans="7:10">
@@ -8726,7 +8754,7 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>0.05963025398254394</v>
+        <v>0.05889204998016358</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -8740,38 +8768,10 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>0.007258106708526611</v>
+        <v>0.007241604971885681</v>
       </c>
       <c r="J188">
-        <v>58.52</v>
-      </c>
-    </row>
-    <row r="189" spans="7:10">
-      <c r="G189">
-        <v>1</v>
-      </c>
-      <c r="H189">
-        <v>94</v>
-      </c>
-      <c r="I189">
-        <v>0.05961318321228028</v>
-      </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="7:10">
-      <c r="G190">
-        <v>2</v>
-      </c>
-      <c r="H190">
-        <v>94</v>
-      </c>
-      <c r="I190">
-        <v>0.007264784693717956</v>
-      </c>
-      <c r="J190">
-        <v>58.32</v>
+        <v>58.98</v>
       </c>
     </row>
   </sheetData>
